--- a/Database_Basque_toponyms_ending_in_-ga.xlsx
+++ b/Database_Basque_toponyms_ending_in_-ga.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contributions\Talks\To_be_given\2024\ICOS28_2024_The_Basque_locative_suffix_-ga_through_the_lens_of_onomastics\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932A78D8-05C6-49FB-AA4C-E65EDEF2C7B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14700" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14700" windowHeight="15585" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="List of onyms in -(er)ga" sheetId="1" r:id="rId1"/>
+    <sheet name="List of onyms in -aga" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
   <si>
     <t>Toponym</t>
   </si>
@@ -1194,13 +1194,162 @@
       </rPr>
       <t xml:space="preserve"> (?)</t>
     </r>
+  </si>
+  <si>
+    <t>Agiñaga</t>
+  </si>
+  <si>
+    <r>
+      <t>Salaberri (2015: 54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>55)</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of yews'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Aginaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hagin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'yew' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Village in northwest Araba</t>
+  </si>
+  <si>
+    <t>Bizkaian charters (1471)</t>
+  </si>
+  <si>
+    <t>Ametzaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reja de San Millán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (1025)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ametz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'gall oak' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Salaberri (2015: 65–66)</t>
+  </si>
+  <si>
+    <t>Village in northeast Araba</t>
+  </si>
+  <si>
+    <t>Place of gall oaks'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1228,6 +1377,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1249,7 +1404,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1267,6 +1422,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1546,14 +1704,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="6" width="22.7109375" style="1"/>
     <col min="7" max="7" width="22.7109375" style="4"/>
@@ -2138,4 +2296,178 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="22.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="36" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="37" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="38" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="39" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="40" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="42" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="43" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="44" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="45" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="46" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="47" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="48" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="54" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="55" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="56" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="57" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="58" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="59" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="60" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="61" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="62" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="63" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="64" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="65" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="66" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="67" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="68" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="69" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="70" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="71" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="72" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="73" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="74" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="75" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="76" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="77" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="78" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="79" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="80" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="85" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="86" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="87" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="89" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="91" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="92" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="93" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="94" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="95" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Database_Basque_toponyms_ending_in_-ga.xlsx
+++ b/Database_Basque_toponyms_ending_in_-ga.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contributions\Talks\To_be_given\2024\ICOS28_2024_The_Basque_locative_suffix_-ga_through_the_lens_of_onomastics\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02064BE-9BA5-47EF-8681-2CC3CA2F572C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14700" windowHeight="15585" activeTab="1"/>
+    <workbookView xWindow="14325" yWindow="0" windowWidth="14565" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of onyms in -(er)ga" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="503">
   <si>
     <t>Toponym</t>
   </si>
@@ -1199,8 +1200,1497 @@
     <t>Agiñaga</t>
   </si>
   <si>
-    <r>
-      <t>Salaberri (2015: 54</t>
+    <t>Place of yews'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Aginaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hagin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'yew' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Village in northwest Araba</t>
+  </si>
+  <si>
+    <t>Bizkaian charters (1471)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Reja de San Millán</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (1025)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ametz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'gall oak' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Salaberri (2015: 65–66)</t>
+  </si>
+  <si>
+    <t>Village in northeast Araba</t>
+  </si>
+  <si>
+    <t>Place of gall oaks'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Arespalditzaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Arispaldiçaca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Harrespaldichaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aretx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak tree' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'dark, black' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or harres 'city wall' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>paldi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baldi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of dark oak trees' or 'Place of the city wall'</t>
+  </si>
+  <si>
+    <t>Ledesma, Ruiz de Lóizaga, López de Guereñu</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 90)</t>
+  </si>
+  <si>
+    <t>Arraitzaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>arraitza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Abandoned village in Arakil, west Navarre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Arayça</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Arayçaco</t>
+    </r>
+  </si>
+  <si>
+    <t>Aretxaga</t>
+  </si>
+  <si>
+    <t>Place of oak trees'</t>
+  </si>
+  <si>
+    <t>Neighborhood of Okondo (northwest Araba)</t>
+  </si>
+  <si>
+    <t>Ledesma</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aretx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak tree' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Date of 1st attestation</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>920 years</t>
+  </si>
+  <si>
+    <t>324 years</t>
+  </si>
+  <si>
+    <t>940 years</t>
+  </si>
+  <si>
+    <t>768 years</t>
+  </si>
+  <si>
+    <t>724 years</t>
+  </si>
+  <si>
+    <t>12th c. (~1150)</t>
+  </si>
+  <si>
+    <t>874 years</t>
+  </si>
+  <si>
+    <t>999 years</t>
+  </si>
+  <si>
+    <t>939 years</t>
+  </si>
+  <si>
+    <t>767 years</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ametzaga </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Asparrena</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ametzaga </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Zuia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Real Academia de la Historia (1802)</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 66)</t>
+  </si>
+  <si>
+    <t>Amezketa</t>
+  </si>
+  <si>
+    <t>Arriaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>harri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'rock' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of rocks'</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 101)</t>
+  </si>
+  <si>
+    <t>Harrieta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>harri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'rock' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zabal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'broad' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of the broad rock'</t>
+  </si>
+  <si>
+    <t>Village in eastern Araba</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 104)</t>
+  </si>
+  <si>
+    <t>Arrizabaleta</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Arrizabalaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Harrizauallaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>har</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- 'rock' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zubi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'bridge' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Village in central Araba</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 108)</t>
+  </si>
+  <si>
+    <t>Place of the stone bridge'</t>
+  </si>
+  <si>
+    <t>Azkoaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haizko</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>axko</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'little rock' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of the little rock'</t>
+  </si>
+  <si>
+    <t>634 years</t>
+  </si>
+  <si>
+    <t>Village in northern Araba</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 118)</t>
+  </si>
+  <si>
+    <t>Buruaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>buru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'summit' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of the summit'</t>
+  </si>
+  <si>
+    <t>937 years</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 144)</t>
+  </si>
+  <si>
+    <t>Onymic subtype</t>
+  </si>
+  <si>
+    <t>Settlement name</t>
+  </si>
+  <si>
+    <t>Oikonym, hydronym</t>
+  </si>
+  <si>
+    <t>Hydronym</t>
+  </si>
+  <si>
+    <t>Oronym</t>
+  </si>
+  <si>
+    <t>Oikonym</t>
+  </si>
+  <si>
+    <t>Elorriaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>elorri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'hawthorn' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of hawthorns'</t>
+  </si>
+  <si>
+    <t>1153 years</t>
+  </si>
+  <si>
+    <t>Gantzaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'summit' -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of many summits' (?)</t>
+  </si>
+  <si>
+    <t>564 years</t>
+  </si>
+  <si>
+    <t>Neighborhood of Aramaio, north Araba</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 193–194)</t>
+  </si>
+  <si>
+    <t>Luzuriaga</t>
+  </si>
+  <si>
+    <t>Place of white earth'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'earth' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zuri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'white' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Neighborhood of San Millan, northeast Araba</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 265)</t>
+  </si>
+  <si>
+    <t>Makazaga</t>
+  </si>
+  <si>
+    <t>Estenaga</t>
+  </si>
+  <si>
+    <t>Txurdinaga</t>
+  </si>
+  <si>
+    <t>Soltxaga</t>
+  </si>
+  <si>
+    <t>Orreaga</t>
+  </si>
+  <si>
+    <t>Izurdiaga</t>
+  </si>
+  <si>
+    <t>Astigarraga</t>
+  </si>
+  <si>
+    <t>Madariaga</t>
+  </si>
+  <si>
+    <t>Arteaga</t>
+  </si>
+  <si>
+    <t>Zuloaga</t>
+  </si>
+  <si>
+    <t>Otxarkoaga</t>
+  </si>
+  <si>
+    <t>Lizarraga</t>
+  </si>
+  <si>
+    <t>Lazarraga</t>
+  </si>
+  <si>
+    <t>Balentziaga</t>
+  </si>
+  <si>
+    <t>Goenaga</t>
+  </si>
+  <si>
+    <t>Arrigunaga</t>
+  </si>
+  <si>
+    <t>Intxaurraga</t>
+  </si>
+  <si>
+    <t>Leturiaga</t>
+  </si>
+  <si>
+    <t>Gurrutxaga</t>
+  </si>
+  <si>
+    <t>Bidaurrazaga</t>
+  </si>
+  <si>
+    <t>Larrañaga</t>
+  </si>
+  <si>
+    <t>Pagoaga</t>
+  </si>
+  <si>
+    <t>Ugeraga</t>
+  </si>
+  <si>
+    <t>Zumetxaga</t>
+  </si>
+  <si>
+    <t>Iturribaltzaga</t>
+  </si>
+  <si>
+    <t>Oleaga</t>
+  </si>
+  <si>
+    <t>Eltonaga</t>
+  </si>
+  <si>
+    <t>Urkiaga</t>
+  </si>
+  <si>
+    <t>Atxaga</t>
+  </si>
+  <si>
+    <t>Usoaga</t>
+  </si>
+  <si>
+    <t>Usabiaga</t>
+  </si>
+  <si>
+    <t>Zaramaga</t>
+  </si>
+  <si>
+    <t>Usandizaga</t>
+  </si>
+  <si>
+    <t>Urrunaga</t>
+  </si>
+  <si>
+    <t>Aginaga</t>
+  </si>
+  <si>
+    <t>Ezpilaga</t>
+  </si>
+  <si>
+    <t>Labeaga</t>
+  </si>
+  <si>
+    <t>Osinaga</t>
+  </si>
+  <si>
+    <t>Lizuniaga</t>
+  </si>
+  <si>
+    <t>Larraga</t>
+  </si>
+  <si>
+    <t>Aliaga</t>
+  </si>
+  <si>
+    <t>Sagasaga</t>
+  </si>
+  <si>
+    <t>Abartiaga</t>
+  </si>
+  <si>
+    <t>Abiaga</t>
+  </si>
+  <si>
+    <t>Abreaga</t>
+  </si>
+  <si>
+    <t>Abuñaga</t>
+  </si>
+  <si>
+    <t>Aburratzaga</t>
+  </si>
+  <si>
+    <t>Aburuzaga</t>
+  </si>
+  <si>
+    <t>Aburrutzaga</t>
+  </si>
+  <si>
+    <t>Baratzeaga</t>
+  </si>
+  <si>
+    <t>Adarraga</t>
+  </si>
+  <si>
+    <t>Adiaga</t>
+  </si>
+  <si>
+    <t>Adorraga</t>
+  </si>
+  <si>
+    <t>Adorriaga</t>
+  </si>
+  <si>
+    <t>Adurraga</t>
+  </si>
+  <si>
+    <t>Adurriaga</t>
+  </si>
+  <si>
+    <t>Agerrizabalaga</t>
+  </si>
+  <si>
+    <t>Agirreazkuenaga</t>
+  </si>
+  <si>
+    <t>Agirrelexeaga</t>
+  </si>
+  <si>
+    <t>Agirrelezeaga</t>
+  </si>
+  <si>
+    <t>Agirrezabalaga</t>
+  </si>
+  <si>
+    <t>Agromaga</t>
+  </si>
+  <si>
+    <t>Aialaga</t>
+  </si>
+  <si>
+    <t>Ainaga</t>
+  </si>
+  <si>
+    <t>Aintziaga</t>
+  </si>
+  <si>
+    <t>Aitzaga</t>
+  </si>
+  <si>
+    <t>Aitzarraga</t>
+  </si>
+  <si>
+    <t>Aitzuriaga</t>
+  </si>
+  <si>
+    <t>Aitzurraga</t>
+  </si>
+  <si>
+    <t>Aizpillaga</t>
+  </si>
+  <si>
+    <t>Aizuriaga</t>
+  </si>
+  <si>
+    <t>Akolanaga</t>
+  </si>
+  <si>
+    <t>Alanbillaga</t>
+  </si>
+  <si>
+    <t>Albitzuelexaga</t>
+  </si>
+  <si>
+    <t>Latsaga</t>
+  </si>
+  <si>
+    <t>Aldailurriaga</t>
+  </si>
+  <si>
+    <t>Aldaiturriaga</t>
+  </si>
+  <si>
+    <t>Aldariaga</t>
+  </si>
+  <si>
+    <t>Aldeiturriaga</t>
+  </si>
+  <si>
+    <t>Aldeturriaga</t>
+  </si>
+  <si>
+    <t>Aleaga</t>
+  </si>
+  <si>
+    <t>Aliziaga</t>
+  </si>
+  <si>
+    <t>Alkaiaga</t>
+  </si>
+  <si>
+    <t>Allerziaga</t>
+  </si>
+  <si>
+    <t>Altaleorraga</t>
+  </si>
+  <si>
+    <t>Altaleorriaga</t>
+  </si>
+  <si>
+    <t>Altarraga</t>
+  </si>
+  <si>
+    <t>Altazubiaga</t>
+  </si>
+  <si>
+    <t>Alteleorraga</t>
+  </si>
+  <si>
+    <t>Olaga</t>
+  </si>
+  <si>
+    <t>Bikuaga</t>
+  </si>
+  <si>
+    <t>Gurutzaga</t>
+  </si>
+  <si>
+    <t>Kapanaga</t>
+  </si>
+  <si>
+    <t>Lakuaga</t>
+  </si>
+  <si>
+    <t>Altonaga</t>
+  </si>
+  <si>
+    <t>Altunaga</t>
+  </si>
+  <si>
+    <t>Altxarraga</t>
+  </si>
+  <si>
+    <t>Altzaga</t>
+  </si>
+  <si>
+    <t>Aretxulaga</t>
+  </si>
+  <si>
+    <t>Aretxuloaga</t>
+  </si>
+  <si>
+    <t>Aretxuluaga</t>
+  </si>
+  <si>
+    <t>Aritxuluaga</t>
+  </si>
+  <si>
+    <t>Altzibarretxuluaga</t>
+  </si>
+  <si>
+    <t>Altzibarretxulaga</t>
+  </si>
+  <si>
+    <t>Altzibarritxulaga</t>
+  </si>
+  <si>
+    <t>Amasunaga</t>
+  </si>
+  <si>
+    <t>Izarraga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>izar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'star' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Irigoien (1986: 214</t>
     </r>
     <r>
       <rPr>
@@ -1218,22 +2708,665 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>55)</t>
-    </r>
-  </si>
-  <si>
-    <t>Place of yews'</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Aginaga</t>
+      <t>215</t>
+    </r>
+  </si>
+  <si>
+    <t>Place from which stars can be seen'</t>
+  </si>
+  <si>
+    <t>Homestead in Apatamonasterio, Bizkaia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Izarra</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Izarbe</t>
+    </r>
+  </si>
+  <si>
+    <t>Urrutia</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>urrun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'land on the other side of the river' (?) or </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water, river' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place by the river' or 'Place on the other side of the river'</t>
+  </si>
+  <si>
+    <t>1072 years</t>
+  </si>
+  <si>
+    <t>Village near Legutio, central Araba</t>
+  </si>
+  <si>
+    <r>
+      <t>Salaberri (2015: 376</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>377)</t>
+    </r>
+  </si>
+  <si>
+    <t>Eskuernaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Scornia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>The property of *Scorn(i)us'</t>
+  </si>
+  <si>
+    <t>Village in south Araba</t>
+  </si>
+  <si>
+    <r>
+      <t>Salaberri (2015: 382</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>383)</t>
+    </r>
+  </si>
+  <si>
+    <t>Ziorraga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zigor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'path' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of the path'</t>
+  </si>
+  <si>
+    <t>251 years</t>
+  </si>
+  <si>
+    <t>Village in northwest Araba, homestead in Barambio</t>
+  </si>
+  <si>
+    <t>Settlement name, oikonym</t>
+  </si>
+  <si>
+    <t>Salaberri (2015: 398)</t>
+  </si>
+  <si>
+    <t>Zigorrola</t>
+  </si>
+  <si>
+    <t>Zubillaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'wood' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'round' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of the round tree' or 'Place of the rounded-trunk tree'</t>
+  </si>
+  <si>
+    <t>35 years</t>
+  </si>
+  <si>
+    <r>
+      <t>Salaberri (2015: 399</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>400)</t>
+    </r>
+  </si>
+  <si>
+    <t>Gezuraga</t>
+  </si>
+  <si>
+    <t>Lasaga</t>
+  </si>
+  <si>
+    <t>Andronaga</t>
+  </si>
+  <si>
+    <t>Markuerkiaga</t>
+  </si>
+  <si>
+    <t>Iturriaga</t>
+  </si>
+  <si>
+    <t>Urzuriaga</t>
+  </si>
+  <si>
+    <t>Urteaga</t>
+  </si>
+  <si>
+    <t>Urtiaga</t>
+  </si>
+  <si>
+    <t>Galarraga</t>
+  </si>
+  <si>
+    <t>Areizaga</t>
+  </si>
+  <si>
+    <t>Saratxaga</t>
+  </si>
+  <si>
+    <t>Larrinaga</t>
+  </si>
+  <si>
+    <t>Loizaga</t>
+  </si>
+  <si>
+    <t>Regillaga</t>
+  </si>
+  <si>
+    <t>Olariaga</t>
+  </si>
+  <si>
+    <t>Iruarrizaga</t>
+  </si>
+  <si>
+    <t>Oiaga (Oyaga)</t>
+  </si>
+  <si>
+    <t>Azkarraga</t>
+  </si>
+  <si>
+    <t>Unzaga</t>
+  </si>
+  <si>
+    <t>Olaguenaga</t>
+  </si>
+  <si>
+    <t>Ibinaga</t>
+  </si>
+  <si>
+    <t>Gaztañaga (Gastañaga)</t>
+  </si>
+  <si>
+    <t>Muruaga</t>
+  </si>
+  <si>
+    <t>Pagonabarraga</t>
+  </si>
+  <si>
+    <t>Arribillaga</t>
+  </si>
+  <si>
+    <t>Zarraga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Lesaka, north Navarre</t>
+  </si>
+  <si>
+    <t>Village in north Gipuzkoa, also villages in Lizoainibar-Arriasgoiti and Gulibar, central Navarre</t>
+  </si>
+  <si>
+    <t>Askarraga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Donamaria, north Navarre</t>
+  </si>
+  <si>
+    <t>Eitzaga</t>
+  </si>
+  <si>
+    <t>Gendulaga</t>
+  </si>
+  <si>
+    <t>Microtoponym</t>
+  </si>
+  <si>
+    <t>Gendulain</t>
+  </si>
+  <si>
+    <t>Name of a location in Esnotz, Erroibar, east Navarre</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gendul</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, variant of anthroponym </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gendule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Centulianus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place belonging to Gendul(e)' (?)</t>
+  </si>
+  <si>
+    <t>Itzaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Itza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (name of a nearby village and valley) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Itza mountain' or 'Mountain by Itza'</t>
+  </si>
+  <si>
+    <t>Name of a mountain in Itza valley, central Navarre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Higa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Eitzaga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Izagaondoa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gizairudiaga</t>
     </r>
     <r>
       <rPr>
@@ -1252,16 +3385,54 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>hagin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 'yew' + -</t>
+      <t>giza-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gizon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'man') + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>irudi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'image + -</t>
     </r>
     <r>
       <rPr>
@@ -1275,54 +3446,68 @@
     </r>
   </si>
   <si>
-    <t>Village in northwest Araba</t>
-  </si>
-  <si>
-    <t>Bizkaian charters (1471)</t>
-  </si>
-  <si>
-    <t>Ametzaga</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>Reja de San Millán</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> (1025)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>ametz</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 'gall oak' + -</t>
+    <t>Place shaped like a human (body)' or 'Place where there is a human (body)'</t>
+  </si>
+  <si>
+    <t>Astaburuaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>asta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- (&lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>asto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'donkey') + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>buru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'head' + -</t>
     </r>
     <r>
       <rPr>
@@ -1336,20 +3521,777 @@
     </r>
   </si>
   <si>
-    <t>Salaberri (2015: 65–66)</t>
-  </si>
-  <si>
-    <t>Village in northeast Araba</t>
-  </si>
-  <si>
-    <t>Place of gall oaks'</t>
+    <t>Place shaped like a donkey's head'</t>
+  </si>
+  <si>
+    <t>Mitxelena (1953: 104)</t>
+  </si>
+  <si>
+    <t>Gizaburuaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Iguzkitza, west Navarre</t>
+  </si>
+  <si>
+    <t>Lerraga (Larrageta)</t>
+  </si>
+  <si>
+    <t>Neighborhood of Ituren (north Navarre)</t>
+  </si>
+  <si>
+    <t>Villages in Ergoiena, west Navarre, and Itzagaondoa, central Navarre</t>
+  </si>
+  <si>
+    <t>Lizarragabengoa</t>
+  </si>
+  <si>
+    <t>Village in Sakana, west Navarre</t>
+  </si>
+  <si>
+    <t>Village in Auñamendi, north Navarre</t>
+  </si>
+  <si>
+    <t>Village in Orbaibar, central Navarre</t>
+  </si>
+  <si>
+    <t>Galarreta</t>
+  </si>
+  <si>
+    <t>Village in Arratzua-Ubarrundia, central Araba</t>
+  </si>
+  <si>
+    <t>Arzubiaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Aramaio, north Araba, also neighborhood of Erandio, central Bizkaia</t>
+  </si>
+  <si>
+    <t>Aresandiaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Zeberio, south Bizkaia</t>
+  </si>
+  <si>
+    <t>Arrankudiaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Vitoria-Gasteiz (formerly an independent village), Araba, also a neighborhood of Erandio, central Bizkaia</t>
+  </si>
+  <si>
+    <t>Arrigorriaga</t>
+  </si>
+  <si>
+    <t>Village in Hego Uribe, central Bizkaia</t>
+  </si>
+  <si>
+    <t>Village in Allin valley, west Navarre, also Arratia, south Bizkaia, also neighborhoods of Derio and Zamudio, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Atxuriaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Galdames, west Bizkaia</t>
+  </si>
+  <si>
+    <t>Berreaga</t>
+  </si>
+  <si>
+    <t>Neighborhoods of Lemoiz and Plentzia, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Gazaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Zaldibar, east Bizkaia</t>
+  </si>
+  <si>
+    <t>Arteaga (Gautegiz)</t>
+  </si>
+  <si>
+    <t>Village in Busturialdea, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Gerediaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Abadiño, east Bizkaia</t>
+  </si>
+  <si>
+    <t>Astaburuaga, Gizaburuaga</t>
+  </si>
+  <si>
+    <t>Gizaburuaga, Izurdiaga</t>
+  </si>
+  <si>
+    <t>Village in Lea-Artibai, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Neighborhood of Nabarniz, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Neighborhood of Mungia, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Jainko-Oleaga</t>
+  </si>
+  <si>
+    <t>Kukullaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Etxebarri, central Bizkaia</t>
+  </si>
+  <si>
+    <t>Kurtziaga-Arropain</t>
+  </si>
+  <si>
+    <t>Neighborhood of Ispaster, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Marutxaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Lemoiz, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Moreaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Sopela, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Odiaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Amoroto, east Bizkaia</t>
+  </si>
+  <si>
+    <t>Neighborhood of Plentzia, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Trapaga</t>
+  </si>
+  <si>
+    <t>Village in Trapagaran, central Bizkaia</t>
+  </si>
+  <si>
+    <r>
+      <t>Unamun</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zaga</t>
+    </r>
+  </si>
+  <si>
+    <t>Neighborhood of Etxebarria, central Bizkaia</t>
+  </si>
+  <si>
+    <t>Neighborhood of Zeanuri, south Bizkaia</t>
+  </si>
+  <si>
+    <t>Undurraga (Urandurraga)</t>
+  </si>
+  <si>
+    <t>Urberuaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Forua, north Bizkaia</t>
+  </si>
+  <si>
+    <t>Village in northwest Araba, also neighborhoods of Eibar, west Gipuzkoa, Usurbil, north Gipuzkoa, and Zumarraga, south Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Anduaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Ezkio, south Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Apotzaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Eskoriatza, south Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Abandoned village in Burunda, west Navarre, also neighborhood of Zaldibar, east Bizkaia, and Getaria, north Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Village in central Araba, als neighborhood of Kortezubi, north Bizkaia, and Deba, north Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Leintz Gatzaga</t>
+  </si>
+  <si>
+    <t>Village in south Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Maltzaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Eibar, west Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Village in Txulapain, central Navarre, also neighborhood of Nernani, north Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Neighborhood of Hernani, north Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Urdaiaga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Usurbil, north Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Uzarraga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Antzuola, west Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Zikuñaga</t>
+  </si>
+  <si>
+    <t>Zumarraga</t>
+  </si>
+  <si>
+    <t>Settlement in south Araba, also neighborhood of Oñati, south Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Laranga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Mutriku, north Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Zimizarga</t>
+  </si>
+  <si>
+    <t>Neighborhood of Hondarribia, east Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Arrokiaga</t>
+  </si>
+  <si>
+    <t>Village in east Zuberoa</t>
+  </si>
+  <si>
+    <t>Likinaga</t>
+  </si>
+  <si>
+    <t>Village in south Zuberoa</t>
+  </si>
+  <si>
+    <t>Laurnaga</t>
+  </si>
+  <si>
+    <t>House name in Irurita, north Navarre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>laur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'four' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>na</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <r>
+      <t>Mitxelena (1953: 400), Salaberri &amp; Zaldua (2020: 31</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>32)</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of many alders', 'Place of the alder'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Nomenclátor de la Provincia de Guipúzcoa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Anonymous, 1857)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mitxelena (1953: 10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>11, 36), Salaberri &amp; Zaldua (2020: 47)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Altzo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Altzabasoa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haltz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'alder' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Izarraga &lt; izar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'greater starwort' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of much greater starwort'</t>
+  </si>
+  <si>
+    <t>640 years</t>
+  </si>
+  <si>
+    <r>
+      <t>Salaberri &amp; Zaldua (2020: 96</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>97)</t>
+    </r>
+  </si>
+  <si>
+    <t>Izarraitz</t>
+  </si>
+  <si>
+    <t>Place of maple trees'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>astigar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'maple tree' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>642 years</t>
+  </si>
+  <si>
+    <t>Village in east Gipuzkoa</t>
+  </si>
+  <si>
+    <t>Mitxelena (1953: 103), Salaberri &amp; Zaldua (2020: 83)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Astigarribia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Astigarreta</t>
+    </r>
+  </si>
+  <si>
+    <t>Salaberri (2015: 167–168), Salaberri &amp; Zaldua (2020: 140)</t>
+  </si>
+  <si>
+    <t>Elgorriaga</t>
+  </si>
+  <si>
+    <t>Place of the old church building'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Eleiza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'church (western variant)' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'old' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Mitxelena (1953: 403)</t>
+  </si>
+  <si>
+    <r>
+      <t>Salaberri (2015: 54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>55), Salaberri &amp; Zaldua (2020: 152</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>–</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>153)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>apotz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>527 years</t>
+  </si>
+  <si>
+    <t>Salaberri &amp; Zaldua (2020: 172)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,6 +4325,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1404,7 +4352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1422,9 +4370,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1704,21 +4652,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="6" width="22.7109375" style="1"/>
-    <col min="7" max="7" width="22.7109375" style="4"/>
-    <col min="8" max="16384" width="22.7109375" style="1"/>
+    <col min="1" max="9" width="22.7109375" style="1"/>
+    <col min="10" max="10" width="22.7109375" style="4"/>
+    <col min="11" max="16384" width="22.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1728,39 +4676,53 @@
       <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="8"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1770,47 +4732,62 @@
       <c r="C3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="8"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1820,18 +4797,23 @@
       <c r="C6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
@@ -1841,16 +4823,21 @@
       <c r="C7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1860,18 +4847,23 @@
       <c r="C8" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>70</v>
       </c>
@@ -1881,18 +4873,23 @@
       <c r="C9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>19</v>
       </c>
@@ -1902,35 +4899,49 @@
       <c r="C10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>72</v>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>73</v>
       </c>
@@ -1940,97 +4951,131 @@
       <c r="C12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="J15" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>83</v>
       </c>
@@ -2040,31 +5085,45 @@
       <c r="C18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9">
+        <v>1300</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -2074,31 +5133,45 @@
       <c r="C20" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9">
+        <v>1084</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="G21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I21" s="1"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -2106,212 +5179,312 @@
         <v>37</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>97</v>
+        <v>465</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="G24" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="4">
+        <v>1704</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G27" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="G28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="G28" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="D29" s="1" t="s">
-        <v>111</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="J29" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="D30" s="4">
+        <v>1256</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="J31" s="7"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G32" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="J32" s="7"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="G34" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:J188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="22.7109375" style="1"/>
+    <col min="1" max="3" width="22.7109375" style="1"/>
+    <col min="4" max="5" width="22.7109375" style="4"/>
+    <col min="6" max="16384" width="22.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2321,151 +5494,2128 @@
       <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1114</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D53" s="9">
+        <v>1319</v>
+      </c>
+      <c r="E53" s="9">
+        <v>705</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="9">
+        <v>1257</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="G59" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D62" s="9">
+        <v>1497</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D65" s="9">
+        <v>1085</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="9">
+        <v>1257</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H73" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="34" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="35" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="36" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="37" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="45" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="47" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="48" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="9" customFormat="1" x14ac:dyDescent="0.3"/>
+      <c r="I73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D77" s="9">
+        <v>1025</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1025</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" s="8"/>
+      <c r="F82" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1382</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="8"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" s="8"/>
+      <c r="F86" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1390</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C89" s="8"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" s="8"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C91" s="8"/>
+      <c r="F91" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C92" s="8"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1087</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C95" s="8"/>
+      <c r="F95" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D96" s="4">
+        <v>871</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C99" s="8"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C100" s="8"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C101" s="8"/>
+      <c r="J101" s="3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D102" s="4">
+        <v>1460</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="F103" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C104" s="8"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C106" s="8"/>
+      <c r="F106" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J106" s="3"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C107" s="8"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="F108" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="8"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C110" s="8"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C111" s="8"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C112" s="8"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C113" s="8"/>
+      <c r="F113" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C114" s="8"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="8"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C116" s="8"/>
+      <c r="F116" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="F120" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J120" s="3"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C121" s="8"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C122" s="8"/>
+      <c r="F122" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C123" s="8"/>
+      <c r="F123" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="8"/>
+      <c r="F124" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125" s="8"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" s="8"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C127" s="8"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C128" s="8"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C129" s="8"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C130" s="8"/>
+      <c r="F130" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C133" s="8"/>
+      <c r="F133" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C134" s="8"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C135" s="8"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="F136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="F137" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="F138" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C139" s="8"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C140" s="8"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="4">
+        <v>1257</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142" s="8"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" s="3" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D173" s="4">
+        <v>952</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I173" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C174" s="8"/>
+      <c r="J174" s="3"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C175" s="8"/>
+      <c r="J175" s="3"/>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C176" s="8"/>
+      <c r="J176" s="3"/>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="D180" s="4">
+        <v>1384</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I180" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D184" s="4">
+        <v>1773</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J184" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D185" s="4">
+        <v>1989</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J185" s="3"/>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Database_Basque_toponyms_ending_in_-ga.xlsx
+++ b/Database_Basque_toponyms_ending_in_-ga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contributions\Talks\To_be_given\2024\ICOS28_2024_The_Basque_locative_suffix_-ga_through_the_lens_of_onomastics\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3DB77F-7923-4F08-B029-F88475558D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF04B6-EB4D-4D9E-BE5F-56B2B4D89680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="0" windowWidth="14670" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14250" yWindow="0" windowWidth="14655" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of onyms in -ga" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="895">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="926">
   <si>
     <t>Toponym</t>
   </si>
@@ -1283,227 +1283,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>aretx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 'oak tree' + </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>bel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 'dark, black' + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tza</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>aga</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> or harres 'city wall' + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>paldi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>baldi</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>- (?) + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>tza</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>aga</t>
-    </r>
-  </si>
-  <si>
     <t>Place of dark oak trees' or 'Place of the city wall'</t>
   </si>
   <si>
@@ -1523,37 +1302,6 @@
   </si>
   <si>
     <t>Ledesma</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>aretx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 'oak tree' + -</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>aga</t>
-    </r>
   </si>
   <si>
     <t>Date of 1st attestation</t>
@@ -3097,9 +2845,6 @@
     <t>Neighborhood of Zeberio, south Bizkaia</t>
   </si>
   <si>
-    <t>Neighborhood of Vitoria-Gasteiz (formerly an independent village), Araba, also a neighborhood of Erandio, central Bizkaia</t>
-  </si>
-  <si>
     <t>Arrigorriaga</t>
   </si>
   <si>
@@ -4058,9 +3803,6 @@
     <t>319 years</t>
   </si>
   <si>
-    <t>Location in Uharte Arakil, west Navarre</t>
-  </si>
-  <si>
     <t>Arritzaga</t>
   </si>
   <si>
@@ -11435,6 +11177,685 @@
   </si>
   <si>
     <t>Place of (the) wide oak tree(s)' or 'Place of (the) oak tree field(s)'</t>
+  </si>
+  <si>
+    <t>Goroaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>goroa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>koroa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'crown, round summit' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) round summit(s)'</t>
+  </si>
+  <si>
+    <t>765 years</t>
+  </si>
+  <si>
+    <t>North Bizkaia (1)</t>
+  </si>
+  <si>
+    <t>García Arancón (2000: 45)</t>
+  </si>
+  <si>
+    <t>Family name in Bizkarreta-Gerendiain, Erroibar, north Navarre</t>
+  </si>
+  <si>
+    <t>Goroabe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">haretx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>'oak tree (western variant)' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">haretx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">'oak tree (western variant)' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'dark, black' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> or harres 'city wall' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>paldi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baldi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>- (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haretx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak tree (western variant)' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zulo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'hole' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) oak tree hole(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haretx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haritz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak tree' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hariztui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak tree grove' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) oak tree grove(s)'</t>
+  </si>
+  <si>
+    <t>Location in Uharte Arakil, west Navarre, also location in Saigots, north Navarre</t>
+  </si>
+  <si>
+    <t>Various (25)</t>
+  </si>
+  <si>
+    <t>Neighborhood of Vitoria-Gasteiz (formerly an independent village), Araba, also a neighborhood of Erandio, central Bizkaia, also locations in Añezkar Oteitza, Azkarate, Eneritz, Uskartze, Iturmendi, Urdiain, various places in Navarre</t>
+  </si>
+  <si>
+    <t>Homestead in Asteasu, east Gipuzkoa</t>
+  </si>
+  <si>
+    <t>East Gipuzkoa (6)</t>
+  </si>
+  <si>
+    <t>Aldariaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aldare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'altar' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) altar(s)'</t>
+  </si>
+  <si>
+    <t>Homesteads in Alkiza and Asteasu, east Gipuzkoa</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gaztelu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'castle' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) castle(s)'</t>
+  </si>
+  <si>
+    <t>303 years</t>
+  </si>
+  <si>
+    <t>Location of Eugi, north Navarre</t>
+  </si>
+  <si>
+    <t>Gurutxaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gurutze</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'cross' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) cross(es)'</t>
+  </si>
+  <si>
+    <t>Locations in Eugi, north Navarre, and Irotz, central Navarre</t>
+  </si>
+  <si>
+    <t>Locations in Añezkar Oteitza and Aldaba, central Navarre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>igera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ihera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eihera</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'mill' + -aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) mill(s)'</t>
   </si>
 </sst>
 </file>
@@ -11502,7 +11923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -11526,9 +11947,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11811,7 +12229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E16" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -11830,25 +12248,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -11866,7 +12284,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -11875,10 +12293,10 @@
         <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>24</v>
@@ -11909,10 +12327,10 @@
         <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>58</v>
@@ -11936,10 +12354,10 @@
         <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>58</v>
@@ -11960,10 +12378,10 @@
         <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
@@ -11981,7 +12399,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
@@ -11992,10 +12410,10 @@
         <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
@@ -12013,7 +12431,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>54</v>
@@ -12024,10 +12442,10 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
@@ -12043,7 +12461,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>56</v>
@@ -12054,7 +12472,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -12086,10 +12504,10 @@
         <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
@@ -12118,10 +12536,10 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>23</v>
@@ -12152,7 +12570,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
@@ -12182,7 +12600,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -12201,7 +12619,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
@@ -12210,10 +12628,10 @@
         <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
@@ -12226,7 +12644,7 @@
         <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -12238,10 +12656,10 @@
         <v>109</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -12256,7 +12674,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -12268,10 +12686,10 @@
         <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
@@ -12287,23 +12705,23 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -12313,32 +12731,32 @@
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E17" s="4">
         <v>1270</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>58</v>
@@ -12354,7 +12772,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -12362,10 +12780,10 @@
         <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -12390,10 +12808,10 @@
         <v>86</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -12406,28 +12824,28 @@
         <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>554</v>
       </c>
       <c r="E20" s="9">
         <v>1300</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -12452,16 +12870,16 @@
         <v>1084</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>90</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -12474,21 +12892,21 @@
         <v>92</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>0</v>
@@ -12507,10 +12925,10 @@
         <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -12518,10 +12936,10 @@
         <v>74</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -12529,7 +12947,7 @@
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
@@ -12537,13 +12955,13 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -12554,13 +12972,13 @@
         <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -12568,10 +12986,10 @@
         <v>94</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -12584,11 +13002,11 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -12596,10 +13014,10 @@
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>32</v>
@@ -12616,34 +13034,34 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E27" s="4">
         <v>1704</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>95</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -12654,10 +13072,10 @@
         <v>100</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -12665,10 +13083,10 @@
         <v>99</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K28" s="1" t="s">
         <v>58</v>
@@ -12688,7 +13106,7 @@
         <v>102</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>0</v>
@@ -12717,10 +13135,10 @@
         <v>104</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J30" s="4"/>
       <c r="L30" s="5" t="s">
@@ -12737,13 +13155,13 @@
         <v>1256</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>107</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>0</v>
@@ -12762,7 +13180,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>43</v>
@@ -12773,10 +13191,10 @@
         <v>96</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>87</v>
@@ -12791,7 +13209,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -12799,10 +13217,10 @@
         <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>27</v>
@@ -12811,29 +13229,29 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="8" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E34" s="4">
         <v>1286</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>24</v>
@@ -12864,10 +13282,10 @@
         <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L35" s="5" t="s">
         <v>112</v>
@@ -12892,10 +13310,10 @@
         <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>113</v>
@@ -12903,17 +13321,17 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C37" s="4"/>
       <c r="G37" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -12924,10 +13342,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L254"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A238" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -12945,25 +13363,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>2</v>
@@ -12977,37 +13395,37 @@
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E2" s="4">
         <v>1588</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>24</v>
@@ -13015,34 +13433,34 @@
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="E3" s="4">
         <v>1847</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -13053,48 +13471,48 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E4" s="4">
         <v>1998</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -13106,25 +13524,25 @@
         <v>1268</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -13144,162 +13562,162 @@
         <v>1114</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E7" s="9">
         <v>1998</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E8" s="9">
         <v>1998</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E11" s="4">
         <v>1103</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>24</v>
@@ -13308,21 +13726,21 @@
         <v>58</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
@@ -13331,13 +13749,13 @@
         <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>24</v>
@@ -13346,219 +13764,209 @@
         <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>237</v>
+        <v>911</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>732</v>
+        <v>912</v>
       </c>
       <c r="C17" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>733</v>
+        <v>913</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
+      <c r="G17" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>550</v>
+        <v>728</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="4">
-        <v>2</v>
+        <v>672</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>374</v>
-      </c>
-      <c r="E19" s="9">
-        <v>1319</v>
-      </c>
-      <c r="F19" s="9">
-        <v>705</v>
+        <v>369</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>322</v>
+        <v>673</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>734</v>
+        <v>535</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>377</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>633</v>
+        <v>240</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>735</v>
+        <v>375</v>
       </c>
       <c r="C20" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+        <v>371</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1319</v>
+      </c>
+      <c r="F20" s="9">
+        <v>705</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>146</v>
+        <v>629</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>120</v>
+        <v>731</v>
       </c>
       <c r="C21" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="9">
-        <v>1025</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>120</v>
@@ -13570,174 +13978,195 @@
         <v>123</v>
       </c>
       <c r="E22" s="9">
-        <v>1257</v>
+        <v>1025</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>634</v>
+        <v>145</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>737</v>
+        <v>120</v>
       </c>
       <c r="C23" s="4">
         <v>2</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>738</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="L23" s="3"/>
+        <v>123</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1257</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="C25" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
+      <c r="G25" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>747</v>
+        <v>632</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>352</v>
+        <v>743</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="C27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>353</v>
+        <v>746</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>533</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>637</v>
+        <v>349</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C28" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
+      <c r="G28" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="C29" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -13745,16 +14174,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>611</v>
+        <v>634</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="C30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -13762,792 +14191,728 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="L31" s="3" t="s">
-        <v>640</v>
-      </c>
+      <c r="L31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>639</v>
+        <v>507</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C32" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
-      <c r="L32" s="3"/>
+      <c r="L32" s="3" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
-      <c r="L33" s="3" t="s">
-        <v>511</v>
-      </c>
+      <c r="L33" s="3"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>519</v>
+        <v>636</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
-      <c r="L34" s="4"/>
+      <c r="L34" s="3" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>610</v>
+        <v>515</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
-      <c r="L35" s="3" t="s">
-        <v>641</v>
-      </c>
+      <c r="L35" s="4"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>641</v>
+        <v>606</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>182</v>
+        <v>775</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="L36" s="3" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>770</v>
+        <v>637</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>428</v>
+        <v>776</v>
       </c>
       <c r="C37" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1705</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
       <c r="L37" s="3" t="s">
-        <v>289</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>642</v>
+        <v>766</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>781</v>
+        <v>425</v>
       </c>
       <c r="C38" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="L38" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1705</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>484</v>
+        <v>639</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>783</v>
+        <v>708</v>
       </c>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>644</v>
+        <v>480</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="C42" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="C43" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
+        <v>783</v>
+      </c>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>323</v>
+        <v>642</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="C44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>790</v>
+        <v>42</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>647</v>
+        <v>321</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="13"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L45" s="3"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="13"/>
+      <c r="F46" s="8"/>
+      <c r="L46" s="3"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C47" s="4">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="8"/>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C48" s="4">
+        <v>5</v>
+      </c>
+      <c r="D48" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="8" t="s">
+      <c r="E48" s="9">
+        <v>1085</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E47" s="9">
-        <v>1085</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J47" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C48" s="4">
-        <v>2</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="E48" s="9">
-        <v>1257</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="L48" s="1" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
+        <v>128</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="C49" s="4">
+        <v>2</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="9">
+        <v>1257</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C50" s="4">
+        <v>3</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
+        <v>242</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C51" s="4">
+        <v>3</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>58</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C52" s="4">
+        <v>3</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
+        <v>645</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C53" s="4">
+        <v>3</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>905</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
+        <v>646</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>651</v>
+        <v>244</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>894</v>
-      </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
+        <v>902</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>485</v>
+        <v>647</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C56" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>790</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-      <c r="L56" s="12"/>
+        <v>890</v>
+      </c>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>652</v>
+        <v>481</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C57" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>891</v>
-      </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12"/>
-      <c r="L57" s="12"/>
+        <v>786</v>
+      </c>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>889</v>
-      </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+        <v>887</v>
+      </c>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>887</v>
-      </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12"/>
-      <c r="L59" s="12"/>
+        <v>885</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>441</v>
+        <v>882</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
+        <v>883</v>
+      </c>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>884</v>
+        <v>437</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>885</v>
-      </c>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
+        <v>438</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>759</v>
+        <v>880</v>
       </c>
       <c r="C62" s="4">
         <v>3</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>760</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
+        <v>881</v>
+      </c>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>882</v>
+        <v>755</v>
       </c>
       <c r="C63" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>883</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
+        <v>756</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C64" s="4">
-        <v>3</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>881</v>
-      </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>861</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12"/>
-      <c r="L65" s="12"/>
+      <c r="D65" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>151</v>
+        <v>656</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>152</v>
+        <v>875</v>
       </c>
       <c r="C66" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="9">
-        <v>1025</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>155</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>661</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>878</v>
+        <v>150</v>
       </c>
       <c r="C67" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>877</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="L67" s="3"/>
+        <v>151</v>
+      </c>
+      <c r="E67" s="9">
+        <v>1025</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -14555,71 +14920,71 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>289</v>
+        <v>658</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>430</v>
+        <v>872</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="E69" s="9">
-        <v>1645</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>855</v>
-      </c>
+        <v>873</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="L69" s="3"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>663</v>
+        <v>287</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>874</v>
+        <v>427</v>
       </c>
       <c r="C70" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>875</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="L70" s="3"/>
+        <v>725</v>
+      </c>
+      <c r="E70" s="9">
+        <v>1645</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>851</v>
+      </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C71" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -14627,35 +14992,24 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>326</v>
+        <v>660</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
-      <c r="G72" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>869</v>
-      </c>
+      <c r="L72" s="3"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>665</v>
+        <v>323</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>866</v>
@@ -14668,13 +15022,22 @@
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
+      <c r="G73" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="L73" s="3" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>862</v>
@@ -14687,20 +15050,22 @@
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
-      <c r="L74" s="3"/>
+      <c r="L74" s="3" t="s">
+        <v>864</v>
+      </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>205</v>
+        <v>662</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -14708,243 +15073,243 @@
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>463</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>462</v>
+        <v>856</v>
       </c>
       <c r="C76" s="4">
         <v>3</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>858</v>
-      </c>
-      <c r="E76" s="9">
-        <v>1701</v>
-      </c>
-      <c r="F76" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>567</v>
-      </c>
+        <v>857</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="L76" s="3"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>442</v>
+        <v>854</v>
       </c>
       <c r="E77" s="9">
-        <v>2000</v>
+        <v>1701</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>24</v>
+        <v>177</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>445</v>
+        <v>563</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>667</v>
+        <v>436</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="J78" s="4"/>
+        <v>438</v>
+      </c>
+      <c r="E78" s="9">
+        <v>2000</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="L78" s="3" t="s">
-        <v>856</v>
+        <v>441</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C79" s="4">
         <v>3</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="J79" s="4"/>
       <c r="L79" s="3" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>700</v>
+        <v>664</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>701</v>
+        <v>427</v>
       </c>
       <c r="C80" s="4">
         <v>3</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="J80" s="4"/>
-      <c r="L80" s="3"/>
+      <c r="L80" s="3" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>436</v>
+        <v>696</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>438</v>
+        <v>697</v>
       </c>
       <c r="C81" s="4">
         <v>3</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>439</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="J81" s="4"/>
+      <c r="L81" s="3"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>159</v>
+      <c r="A82" s="3" t="s">
+        <v>432</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>434</v>
       </c>
       <c r="C82" s="4">
         <v>3</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>859</v>
-      </c>
-      <c r="E82" s="9">
-        <v>1025</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>143</v>
+        <v>433</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>854</v>
+        <v>792</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>119</v>
+      <c r="J82" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L82" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>669</v>
-      </c>
       <c r="B83" s="1" t="s">
-        <v>851</v>
+        <v>154</v>
       </c>
       <c r="C83" s="4">
         <v>3</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>852</v>
-      </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="L83" s="3"/>
+        <v>855</v>
+      </c>
+      <c r="E83" s="9">
+        <v>1025</v>
+      </c>
+      <c r="F83" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="C84" s="4">
         <v>3</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -14952,10 +15317,10 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C85" s="4">
         <v>3</v>
@@ -14969,56 +15334,56 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>369</v>
+        <v>667</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C86" s="4">
         <v>3</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
-      <c r="G86" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="L86" s="3"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>486</v>
+        <v>366</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
+      <c r="G87" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>672</v>
+        <v>482</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -15026,13 +15391,13 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>199</v>
+        <v>668</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="C89" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>839</v>
@@ -15043,94 +15408,94 @@
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>330</v>
+        <v>197</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C90" s="4">
         <v>2</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
-      <c r="G90" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>673</v>
+        <v>327</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="C91" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>834</v>
-      </c>
-      <c r="E91" s="9">
-        <v>1998</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>628</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>836</v>
+        <v>328</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="J91" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="K91" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>838</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="L91" s="3"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>704</v>
+        <v>669</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>705</v>
+        <v>829</v>
       </c>
       <c r="C92" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="L92" s="3"/>
+        <v>830</v>
+      </c>
+      <c r="E92" s="9">
+        <v>1998</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>834</v>
+      </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>560</v>
+        <v>700</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>832</v>
+        <v>701</v>
       </c>
       <c r="C93" s="4">
         <v>3</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>437</v>
+        <v>702</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -15138,703 +15503,682 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>321</v>
+        <v>556</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>160</v>
+        <v>828</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E94" s="4">
-        <v>1025</v>
-      </c>
-      <c r="F94" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J94" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>567</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="L94" s="3"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>830</v>
+        <v>158</v>
       </c>
       <c r="C95" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>831</v>
+        <v>161</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1025</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>292</v>
+        <v>318</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>559</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>308</v>
+        <v>826</v>
       </c>
       <c r="C96" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>335</v>
+        <v>827</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>197</v>
+        <v>305</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>385</v>
+        <v>306</v>
       </c>
       <c r="C97" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="E97" s="4">
-        <v>1382</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>148</v>
+        <v>307</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>389</v>
+        <v>308</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>827</v>
+        <v>382</v>
       </c>
       <c r="C98" s="4">
         <v>2</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>829</v>
+        <v>381</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1382</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C99" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="G99" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>797</v>
+        <v>325</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>798</v>
+        <v>824</v>
       </c>
       <c r="C100" s="4">
         <v>3</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>799</v>
+        <v>821</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>282</v>
+        <v>793</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>824</v>
+        <v>794</v>
       </c>
       <c r="C101" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>384</v>
+        <v>795</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>164</v>
+        <v>280</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
       <c r="C102" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1390</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>826</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C103" s="4">
+        <v>3</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1390</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L103" s="1" t="s">
         <v>822</v>
-      </c>
-      <c r="C103" s="4">
-        <v>2</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C104" s="4">
         <v>2</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>601</v>
+        <v>222</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>602</v>
+        <v>816</v>
       </c>
       <c r="C105" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>607</v>
+        <v>817</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>741</v>
+        <v>597</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="C106" s="4">
         <v>3</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>743</v>
+        <v>599</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>293</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>744</v>
+        <v>601</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L106" s="3"/>
+        <v>602</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>619</v>
+        <v>737</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>818</v>
+        <v>738</v>
       </c>
       <c r="C107" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>819</v>
+        <v>739</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>707</v>
+        <v>615</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>708</v>
+        <v>814</v>
       </c>
       <c r="C108" s="4">
         <v>2</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>709</v>
+        <v>815</v>
       </c>
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>239</v>
+        <v>703</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>816</v>
+        <v>704</v>
       </c>
       <c r="C109" s="4">
         <v>2</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>817</v>
-      </c>
+        <v>705</v>
+      </c>
+      <c r="L109" s="3"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>550</v>
+        <v>812</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J110" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>415</v>
+        <v>813</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>169</v>
+        <v>409</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C111" s="4">
-        <v>2</v>
+        <v>413</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>546</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E111" s="4">
-        <v>1087</v>
+        <v>369</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>161</v>
+        <v>410</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>148</v>
+        <v>173</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>173</v>
+        <v>411</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>585</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>618</v>
+        <v>167</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>814</v>
+        <v>168</v>
       </c>
       <c r="C112" s="4">
         <v>2</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>815</v>
+        <v>169</v>
+      </c>
+      <c r="E112" s="4">
+        <v>1087</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>400</v>
+        <v>614</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>402</v>
+        <v>810</v>
       </c>
       <c r="C113" s="4">
         <v>2</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J113" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>24</v>
+        <v>811</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>504</v>
+        <v>397</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>579</v>
+        <v>399</v>
       </c>
       <c r="C114" s="4">
         <v>2</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="E114" s="4">
-        <v>1892</v>
+        <v>400</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>581</v>
+        <v>24</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>582</v>
+        <v>416</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>433</v>
+        <v>293</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L114" s="1" t="s">
-        <v>583</v>
+        <v>398</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="C115" s="4">
         <v>2</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E115" s="4">
-        <v>1290</v>
+        <v>1892</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>539</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>571</v>
+        <v>430</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>572</v>
+        <v>22</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>678</v>
+        <v>466</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>812</v>
+        <v>564</v>
       </c>
       <c r="C116" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>813</v>
+        <v>569</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1290</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>565</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>677</v>
+        <v>566</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>433</v>
+        <v>567</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="L116" s="3"/>
+      <c r="L116" s="3" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C117" s="4">
+        <v>3</v>
+      </c>
+      <c r="D117" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C117" s="4">
-        <v>2</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="E117" s="4">
-        <v>1366</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="J117" s="1" t="s">
-        <v>589</v>
+        <v>430</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L117" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="L117" s="3"/>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>617</v>
+        <v>291</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>810</v>
+        <v>582</v>
       </c>
       <c r="C118" s="4">
         <v>2</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="L118" s="4"/>
+        <v>583</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1366</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>471</v>
+        <v>613</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>574</v>
+        <v>806</v>
       </c>
       <c r="C119" s="4">
         <v>2</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="E119" s="4">
-        <v>1245</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I119" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="J119" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L119" s="1" t="s">
-        <v>578</v>
-      </c>
+        <v>807</v>
+      </c>
+      <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="C120" s="4">
         <v>2</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E120" s="4">
-        <v>1327</v>
+        <v>1245</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>179</v>
+        <v>446</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>22</v>
@@ -15843,1636 +16187,1757 @@
         <v>58</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>180</v>
+        <v>468</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>181</v>
+        <v>586</v>
       </c>
       <c r="C121" s="4">
         <v>2</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>864</v>
+        <v>587</v>
       </c>
       <c r="E121" s="4">
-        <v>871</v>
+        <v>1327</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>183</v>
+        <v>588</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>865</v>
+        <v>589</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>148</v>
+        <v>22</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="L121" s="3" t="s">
-        <v>391</v>
+        <v>58</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>710</v>
+        <v>178</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>711</v>
+        <v>179</v>
       </c>
       <c r="C122" s="4">
         <v>2</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>712</v>
+        <v>860</v>
+      </c>
+      <c r="E122" s="4">
+        <v>871</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>761</v>
+        <v>706</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>762</v>
+        <v>707</v>
       </c>
       <c r="C123" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>763</v>
+        <v>708</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>473</v>
+        <v>757</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>595</v>
+        <v>758</v>
       </c>
       <c r="C124" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E124" s="4">
-        <v>1584</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>598</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="I124" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J124" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="K124" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L124" s="3" t="s">
-        <v>600</v>
+        <v>759</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>512</v>
+        <v>469</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>764</v>
+        <v>591</v>
       </c>
       <c r="C125" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>765</v>
+        <v>592</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1584</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>713</v>
+        <v>508</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="C126" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>715</v>
+        <v>761</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>800</v>
+        <v>709</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>801</v>
+        <v>710</v>
       </c>
       <c r="C127" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>802</v>
+        <v>711</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>474</v>
+        <v>796</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>808</v>
+        <v>797</v>
       </c>
       <c r="C128" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="L128" s="4"/>
+        <v>798</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="I128" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C129" s="4"/>
-      <c r="D129" s="8"/>
+        <v>470</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C129" s="4">
+        <v>2</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C130" s="4"/>
       <c r="D130" s="8"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>277</v>
+        <v>484</v>
       </c>
       <c r="C131" s="4"/>
       <c r="D131" s="8"/>
-      <c r="L131" s="3" t="s">
-        <v>319</v>
-      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>612</v>
+        <v>275</v>
       </c>
       <c r="C132" s="4"/>
       <c r="D132" s="8"/>
-      <c r="L132" s="3"/>
+      <c r="L132" s="3" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="B133" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="C133" s="4"/>
-      <c r="D133" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E133" s="4">
-        <v>1460</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J133" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K133" s="1" t="s">
-        <v>188</v>
-      </c>
+      <c r="D133" s="8"/>
+      <c r="L133" s="3"/>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>505</v>
+        <v>604</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C134" s="4"/>
-      <c r="D134" s="8"/>
+      <c r="D134" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1460</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>286</v>
+        <v>501</v>
       </c>
       <c r="C135" s="4"/>
       <c r="D135" s="8"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
-        <v>475</v>
+        <v>284</v>
       </c>
       <c r="C136" s="4"/>
       <c r="D136" s="8"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>294</v>
+        <v>471</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C137" s="4"/>
+        <v>915</v>
+      </c>
+      <c r="C137" s="4">
+        <v>2</v>
+      </c>
       <c r="D137" s="8" t="s">
-        <v>299</v>
+        <v>916</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1721</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>917</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>297</v>
+        <v>918</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>539</v>
       </c>
       <c r="I137" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>296</v>
+        <v>173</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="8"/>
+        <v>292</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C138" s="4">
+        <v>2</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>297</v>
+      </c>
       <c r="G138" s="1" t="s">
-        <v>333</v>
+        <v>295</v>
       </c>
       <c r="I138" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="L138" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>506</v>
+        <v>329</v>
       </c>
       <c r="C139" s="4"/>
       <c r="D139" s="8"/>
+      <c r="G139" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="I139" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="L139" s="3"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>311</v>
+        <v>502</v>
       </c>
       <c r="C140" s="4"/>
       <c r="D140" s="8"/>
-      <c r="G140" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="L140" s="3"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="C141" s="4"/>
       <c r="D141" s="8"/>
+      <c r="G141" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="I141" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>489</v>
+        <v>202</v>
       </c>
       <c r="C142" s="4"/>
       <c r="D142" s="8"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="8"/>
+        <v>891</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C143" s="4">
+        <v>2</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>893</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1259</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="I143" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>207</v>
+        <v>485</v>
       </c>
       <c r="C144" s="4"/>
       <c r="D144" s="8"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C145" s="4"/>
       <c r="D145" s="8"/>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>513</v>
+        <v>205</v>
       </c>
       <c r="C146" s="4"/>
       <c r="D146" s="8"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="8"/>
+        <v>919</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C147" s="4">
+        <v>2</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="I147" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="8"/>
+        <v>472</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="C148" s="4">
+        <v>2</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="I148" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>609</v>
+        <v>509</v>
       </c>
       <c r="C149" s="4"/>
       <c r="D149" s="8"/>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>514</v>
+        <v>283</v>
       </c>
       <c r="C150" s="4"/>
       <c r="D150" s="8"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="8"/>
-      <c r="G151" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>175</v>
+        <v>473</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C151" s="4">
+        <v>3</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>925</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="C152" s="4"/>
       <c r="D152" s="8"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>716</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C153" s="4">
-        <v>2</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>718</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="D153" s="8"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C154" s="4">
-        <v>4</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>805</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C154" s="4"/>
+      <c r="D154" s="8"/>
       <c r="G154" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>537</v>
+        <v>334</v>
       </c>
       <c r="I154" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J154" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K154" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L154" s="10" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>502</v>
+        <v>616</v>
       </c>
       <c r="C155" s="4"/>
       <c r="D155" s="8"/>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="8"/>
+        <v>712</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>714</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="8"/>
+        <v>799</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C157" s="4">
+        <v>4</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J157" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L157" s="10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>273</v>
+        <v>498</v>
       </c>
       <c r="C158" s="4"/>
       <c r="D158" s="8"/>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>405</v>
+        <v>487</v>
       </c>
       <c r="C159" s="4"/>
       <c r="D159" s="8"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>211</v>
+        <v>503</v>
       </c>
       <c r="C160" s="4"/>
       <c r="D160" s="8"/>
-      <c r="G160" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>515</v>
+        <v>271</v>
       </c>
       <c r="C161" s="4"/>
       <c r="D161" s="8"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>516</v>
+        <v>402</v>
       </c>
       <c r="C162" s="4"/>
       <c r="D162" s="8"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="C163" s="4"/>
-      <c r="D163" s="8" t="s">
-        <v>302</v>
-      </c>
+      <c r="D163" s="8"/>
       <c r="G163" s="1" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="I163" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="L163" s="1" t="s">
-        <v>304</v>
+        <v>173</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="C164" s="4"/>
       <c r="D164" s="8"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>248</v>
+        <v>512</v>
       </c>
       <c r="C165" s="4"/>
-      <c r="D165" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I165" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="K165" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="L165" s="1" t="s">
-        <v>252</v>
-      </c>
+      <c r="D165" s="8"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>196</v>
+        <v>298</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C166" s="4"/>
       <c r="D166" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="K166" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>334</v>
+        <v>300</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I166" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C167" s="4"/>
       <c r="D167" s="8"/>
-      <c r="L167" s="3"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C168" s="4"/>
-      <c r="D168" s="8"/>
+      <c r="D168" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I168" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>339</v>
+        <v>194</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C169" s="4"/>
-      <c r="D169" s="8"/>
-      <c r="G169" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I169" s="1" t="s">
-        <v>175</v>
+      <c r="D169" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>341</v>
+        <v>474</v>
       </c>
       <c r="C170" s="4"/>
       <c r="D170" s="8"/>
-      <c r="G170" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="I170" s="1" t="s">
-        <v>175</v>
-      </c>
+      <c r="L170" s="3"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C171" s="4"/>
       <c r="D171" s="8"/>
-      <c r="G171" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="I171" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>241</v>
+        <v>336</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="8"/>
+      <c r="G172" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I172" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C173" s="4">
-        <v>2</v>
-      </c>
-      <c r="D173" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="E173" s="4">
-        <v>1568</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>449</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="C173" s="4"/>
+      <c r="D173" s="8"/>
       <c r="G173" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>535</v>
+        <v>339</v>
       </c>
       <c r="I173" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="J173" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L173" s="4" t="s">
-        <v>24</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="8"/>
+      <c r="G174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="I174" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>614</v>
+        <v>239</v>
       </c>
       <c r="C175" s="4"/>
       <c r="D175" s="8"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="8"/>
+        <v>442</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C176" s="4">
+        <v>2</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E176" s="4">
+        <v>1568</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>279</v>
+        <v>218</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>493</v>
+        <v>610</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>679</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>551</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C179" s="4"/>
       <c r="D179" s="8"/>
-      <c r="G179" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="H179" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I179" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J179" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>235</v>
+        <v>489</v>
       </c>
       <c r="C181" s="4"/>
       <c r="D181" s="8"/>
-      <c r="G181" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="I181" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>766</v>
+        <v>675</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D182" s="8" t="s">
-        <v>372</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="D182" s="8"/>
       <c r="G182" s="1" t="s">
-        <v>454</v>
+        <v>673</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="I182" s="1" t="s">
-        <v>179</v>
+        <v>293</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>430</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>373</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>456</v>
+        <v>270</v>
       </c>
       <c r="C183" s="4"/>
-      <c r="D183" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="E183" s="4">
-        <v>1830</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="I183" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J183" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="K183" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L183" s="3" t="s">
-        <v>235</v>
-      </c>
+      <c r="D183" s="8"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>554</v>
-      </c>
-      <c r="K184" s="1" t="s">
-        <v>392</v>
+        <v>233</v>
+      </c>
+      <c r="C184" s="4"/>
+      <c r="D184" s="8"/>
+      <c r="G184" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="I184" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="C185" s="4"/>
-      <c r="D185" s="8"/>
+        <v>368</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="I185" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>370</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>355</v>
+        <v>448</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>452</v>
       </c>
       <c r="C186" s="4"/>
-      <c r="D186" s="8"/>
+      <c r="D186" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E186" s="4">
+        <v>1830</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="G186" s="1" t="s">
-        <v>356</v>
+        <v>451</v>
       </c>
       <c r="I186" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
+      </c>
+      <c r="J186" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C187" s="4"/>
-      <c r="D187" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>313</v>
+        <v>504</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="8"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="8"/>
+      <c r="G189" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I189" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>767</v>
+        <v>490</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="8"/>
-      <c r="G191" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I191" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>316</v>
+        <v>491</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="8"/>
-      <c r="G192" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="I192" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>509</v>
+        <v>763</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="8"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>280</v>
+        <v>199</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="8"/>
+      <c r="G194" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I194" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>479</v>
+        <v>314</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="8"/>
+      <c r="G195" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="I195" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>191</v>
+        <v>505</v>
       </c>
       <c r="C196" s="4"/>
-      <c r="D196" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="E196" s="4">
-        <v>1257</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="G196" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I196" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J196" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K196" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="D196" s="8"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>198</v>
+        <v>278</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="C198" s="4"/>
+      <c r="D198" s="8"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>343</v>
+        <v>187</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C199" s="4"/>
+      <c r="D199" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E199" s="4">
+        <v>1257</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="G199" s="1" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="I199" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="C200" s="4"/>
+      <c r="D200" s="8"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>345</v>
+        <v>523</v>
       </c>
       <c r="C201" s="4"/>
-      <c r="G201" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I201" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>503</v>
+        <v>340</v>
       </c>
       <c r="C202" s="4"/>
+      <c r="G202" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I202" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="C203" s="4"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="C204" s="4"/>
+      <c r="G204" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="I204" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>281</v>
+        <v>499</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>510</v>
+        <v>282</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>195</v>
+        <v>279</v>
       </c>
       <c r="C208" s="4"/>
-      <c r="G208" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="I208" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C209" s="4"/>
-      <c r="G209" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="I209" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="C210" s="4"/>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>615</v>
+        <v>193</v>
       </c>
       <c r="C211" s="4"/>
+      <c r="G211" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I211" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>616</v>
+        <v>217</v>
       </c>
       <c r="C212" s="4"/>
+      <c r="G212" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I212" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="C213" s="4">
-        <v>3</v>
-      </c>
-      <c r="D213" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="E213" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G213" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="I213" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J213" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K213" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L213" s="3" t="s">
-        <v>566</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>209</v>
+        <v>611</v>
       </c>
       <c r="C214" s="4"/>
-      <c r="G214" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="I214" s="1" t="s">
-        <v>175</v>
-      </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>496</v>
+        <v>612</v>
       </c>
       <c r="C215" s="4"/>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="C216" s="4"/>
+        <v>803</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C216" s="4">
+        <v>3</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="I216" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>497</v>
+        <v>207</v>
       </c>
       <c r="C217" s="4"/>
+      <c r="G217" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I217" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>222</v>
+        <v>492</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>423</v>
+        <v>286</v>
       </c>
       <c r="C219" s="4"/>
-      <c r="D219" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E219" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F219" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="I219" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J219" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K219" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L219" s="3" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="C220" s="4"/>
-      <c r="D220" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="E220" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F220" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G220" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="I220" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J220" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K220" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L220" s="3" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="C221" s="4"/>
-      <c r="D221" s="8"/>
-      <c r="J221" s="4"/>
-      <c r="L221" s="3"/>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>480</v>
+        <v>418</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="C222" s="4"/>
+      <c r="D222" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="I222" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J222" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>719</v>
+        <v>276</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C223" s="4">
-        <v>2</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="C223" s="4"/>
       <c r="D223" s="8" t="s">
-        <v>721</v>
+        <v>421</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I223" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J223" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>194</v>
+        <v>496</v>
       </c>
       <c r="C224" s="4"/>
+      <c r="D224" s="8"/>
+      <c r="J224" s="4"/>
+      <c r="L224" s="3"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>518</v>
+        <v>476</v>
       </c>
       <c r="C225" s="4"/>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>404</v>
+        <v>715</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="C226" s="4"/>
+        <v>716</v>
+      </c>
+      <c r="C226" s="4">
+        <v>2</v>
+      </c>
       <c r="D226" s="8" t="s">
-        <v>418</v>
-      </c>
-      <c r="E226" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F226" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="I226" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J226" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K226" s="1" t="s">
-        <v>401</v>
+        <v>717</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>632</v>
+        <v>192</v>
       </c>
       <c r="C227" s="4"/>
-      <c r="D227" s="8"/>
-      <c r="J227" s="4"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C228" s="4">
-        <v>3</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="J228" s="4"/>
+        <v>514</v>
+      </c>
+      <c r="C228" s="4"/>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>348</v>
+        <v>401</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="C229" s="4"/>
+      <c r="D229" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="G229" s="1" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>175</v>
+        <v>293</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>283</v>
+        <v>628</v>
       </c>
       <c r="C230" s="4"/>
+      <c r="D230" s="8"/>
+      <c r="J230" s="4"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C231" s="4"/>
-      <c r="G231" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="I231" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C231" s="4">
+        <v>3</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="J231" s="4"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C232" s="4"/>
       <c r="G232" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="C233" s="4"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>613</v>
+        <v>356</v>
       </c>
       <c r="C234" s="4"/>
+      <c r="G234" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>498</v>
+        <v>346</v>
       </c>
       <c r="C235" s="4"/>
+      <c r="G235" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>254</v>
+        <v>211</v>
       </c>
       <c r="C236" s="4"/>
-      <c r="D236" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="E236" s="4">
-        <v>952</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="G236" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I236" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J236" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K236" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="L236" s="3" t="s">
-        <v>253</v>
-      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>275</v>
+        <v>609</v>
       </c>
       <c r="C237" s="4"/>
-      <c r="D237" s="8"/>
-      <c r="L237" s="3"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="C238" s="4"/>
-      <c r="D238" s="8"/>
-      <c r="L238" s="3"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>274</v>
+        <v>214</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>252</v>
       </c>
       <c r="C239" s="4"/>
-      <c r="D239" s="8"/>
-      <c r="L239" s="3"/>
+      <c r="D239" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E239" s="4">
+        <v>952</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>215</v>
+        <v>273</v>
       </c>
       <c r="C240" s="4"/>
+      <c r="D240" s="8"/>
+      <c r="L240" s="3"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>481</v>
+        <v>274</v>
       </c>
       <c r="C241" s="4"/>
+      <c r="D241" s="8"/>
+      <c r="L241" s="3"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>379</v>
+        <v>272</v>
       </c>
       <c r="C242" s="4"/>
-      <c r="D242" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E242" s="4">
-        <v>1384</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="G242" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I242" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J242" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K242" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="L242" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="D242" s="8"/>
+      <c r="L242" s="3"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>680</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C243" s="4">
-        <v>3</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="E243" s="4">
-        <v>1299</v>
-      </c>
-      <c r="F243" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="G243" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="H243" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I243" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="J243" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="K243" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L243" s="3" t="s">
-        <v>681</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C243" s="4"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="C244" s="4"/>
-      <c r="D244" s="8"/>
-      <c r="L244" s="3"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>681</v>
+        <v>358</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C245" s="4">
-        <v>3</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="C245" s="4"/>
       <c r="D245" s="8" t="s">
-        <v>683</v>
+        <v>377</v>
       </c>
       <c r="E245" s="4">
-        <v>1299</v>
+        <v>1384</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>684</v>
+        <v>378</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="H245" s="1" t="s">
-        <v>539</v>
+        <v>359</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>295</v>
+        <v>173</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>469</v>
+        <v>146</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>22</v>
+        <v>379</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>680</v>
+        <v>380</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>259</v>
+        <v>676</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C246" s="4"/>
+        <v>678</v>
+      </c>
+      <c r="C246" s="4">
+        <v>3</v>
+      </c>
       <c r="D246" s="8" t="s">
-        <v>261</v>
+        <v>679</v>
       </c>
       <c r="E246" s="4">
-        <v>1773</v>
+        <v>1299</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>262</v>
+        <v>680</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>263</v>
+        <v>681</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="I246" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>24</v>
+        <v>176</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>265</v>
+        <v>22</v>
       </c>
       <c r="L246" s="3" t="s">
-        <v>266</v>
+        <v>677</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="C247" s="4"/>
       <c r="D247" s="8"/>
-      <c r="J247" s="4"/>
       <c r="L247" s="3"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C248" s="4"/>
-      <c r="D248" s="8"/>
-      <c r="J248" s="4"/>
-      <c r="L248" s="3"/>
+        <v>677</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C248" s="4">
+        <v>3</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="E248" s="4">
+        <v>1299</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>676</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="C249" s="4"/>
       <c r="D249" s="8" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E249" s="4">
-        <v>1989</v>
+        <v>1773</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>364</v>
+        <v>261</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="J249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="L249" s="3"/>
+        <v>263</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="8"/>
@@ -17481,61 +17946,110 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>200</v>
+        <v>479</v>
       </c>
       <c r="C251" s="4"/>
+      <c r="D251" s="8"/>
+      <c r="J251" s="4"/>
+      <c r="L251" s="3"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>363</v>
+        <v>265</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C252" s="4"/>
+      <c r="D252" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E252" s="4">
+        <v>1989</v>
+      </c>
+      <c r="F252" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="G252" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="I252" s="1" t="s">
-        <v>175</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="J252" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L252" s="3"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>210</v>
+        <v>495</v>
       </c>
       <c r="C253" s="4"/>
+      <c r="D253" s="8"/>
+      <c r="J253" s="4"/>
+      <c r="L253" s="3"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C254" s="4"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A255" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="G255" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A256" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C257" s="4">
+        <v>2</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E257" s="4">
+        <v>1361</v>
+      </c>
+      <c r="F257" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="G257" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="I257" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C254" s="4">
-        <v>2</v>
-      </c>
-      <c r="D254" s="8" t="s">
+      <c r="J257" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L257" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="E254" s="4">
-        <v>1361</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="G254" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="I254" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="J254" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="K254" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L254" s="3" t="s">
-        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Basque_toponyms_ending_in_-ga.xlsx
+++ b/Database_Basque_toponyms_ending_in_-ga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contributions\Talks\To_be_given\2024\ICOS28_2024_The_Basque_locative_suffix_-ga_through_the_lens_of_onomastics\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAF04B6-EB4D-4D9E-BE5F-56B2B4D89680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085A9C28-55F9-4950-8EAA-54A93116595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14250" yWindow="0" windowWidth="14655" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14220" yWindow="0" windowWidth="14685" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of onyms in -ga" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="984">
   <si>
     <t>Toponym</t>
   </si>
@@ -2827,9 +2827,6 @@
     <t>Village in Auñamendi, north Navarre</t>
   </si>
   <si>
-    <t>Galarreta</t>
-  </si>
-  <si>
     <t>Village in Arratzua-Ubarrundia, central Araba</t>
   </si>
   <si>
@@ -2861,12 +2858,6 @@
   </si>
   <si>
     <t>Village in Busturialdea, north Bizkaia</t>
-  </si>
-  <si>
-    <t>Gerediaga</t>
-  </si>
-  <si>
-    <t>Neighborhood of Abadiño, east Bizkaia</t>
   </si>
   <si>
     <t>Astaburuaga, Gizaburuaga</t>
@@ -4029,9 +4020,6 @@
     <t>Homestead in Irurita, north Navarre</t>
   </si>
   <si>
-    <t>Homestead in Liginaga-Astüe, Soule</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -5425,9 +5413,6 @@
     </r>
   </si>
   <si>
-    <t>Place of the ditch', 'Place of many ditches'</t>
-  </si>
-  <si>
     <t>Location in Atarrabia, central Navarre</t>
   </si>
   <si>
@@ -7980,9 +7965,6 @@
     </r>
   </si>
   <si>
-    <t>Water source for the sick to bathe'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -8033,9 +8015,6 @@
     </r>
   </si>
   <si>
-    <t>Place of the town's water source'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -9056,9 +9035,6 @@
     </r>
   </si>
   <si>
-    <t>Place of the three rocks' (?)</t>
-  </si>
-  <si>
     <t>Homestead in Gaintza, east Gipuzkoa</t>
   </si>
   <si>
@@ -9174,9 +9150,6 @@
     </r>
   </si>
   <si>
-    <t>Place of the colored (or motted) (trees, rocks)'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -9261,9 +9234,6 @@
     </r>
   </si>
   <si>
-    <t>Place of the big tower'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -11856,6 +11826,1373 @@
   </si>
   <si>
     <t>Place of (the) mill(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ezki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'lime tree' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) lime tree(s)'</t>
+  </si>
+  <si>
+    <t>Place of (the) colored (or motted) (trees, rocks)'</t>
+  </si>
+  <si>
+    <t>Place of (the) ditch(es)', 'Place of many ditches'</t>
+  </si>
+  <si>
+    <t>Place of the town's water source(s)'</t>
+  </si>
+  <si>
+    <t>Place of (the) water source(s) for the sick to bathe'</t>
+  </si>
+  <si>
+    <t>Place of (the) big tower(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ezpel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'box (tree)' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) box tree(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>galar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'withered tree branch' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) withered tree branch(es)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>galar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'withered tree branch' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) many withered tree branches'</t>
+  </si>
+  <si>
+    <t>Galarreta, Galartzaga</t>
+  </si>
+  <si>
+    <t>Galarreta, Galarraga</t>
+  </si>
+  <si>
+    <t>Gaintza</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gatz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'salt' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Salty place'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gaztain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'chestnut tree' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'definite' (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) chestnut tree(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gesal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'salty water', 'salty earth' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) salty water' or 'Place of (the) salty earth'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>giza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">- &lt; </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gizon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'man, human' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>irudi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'image' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place (of the mountain(s)) that look(s) like a human'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>goien</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'uppermost' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of the uppermost (mountain, field, homestead)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gorosti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'holly' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) holly (hollies)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gorosti</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'holly' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'place, area' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) area(s) where holly abounds'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ibi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'ford' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) ford(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iguzki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eguzki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'sun' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) sunny area(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>idoi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'marsh, swamp, pond' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) pond(s)', 'Swampy area'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>intxaur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'walnut tree' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) walnut tree(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ihi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'rush' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) rush(es)', 'Rushy area'</t>
+  </si>
+  <si>
+    <t>Place of (the) three rocks' (?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>irur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'heath, moor, meadow' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) heath(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>isats</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'broom' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) broom(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>istil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'puddle, mud' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Puddly, muddy place'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) water source(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>apur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>) 'scarce, scanty' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) scanty water source(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>baltz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'black (western variant)' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) black water source(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) many water sources'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ibin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'narrow path' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zulo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'hole' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) whole(s) from which water pours'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>oa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) watery area(s)'</t>
+  </si>
+  <si>
+    <t>West Gipuzkoa (9)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>jauregi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'palace' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) palace(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kapana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'cabin (in the woods)' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) cabin(s) (in the woods)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kuku</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>lu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'hill' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) hill(s)'</t>
+  </si>
+  <si>
+    <t>Homestead in Liginaga-Astüe, Zuberoa</t>
   </si>
 </sst>
 </file>
@@ -12229,7 +13566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -12248,7 +13585,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
@@ -12263,7 +13600,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>172</v>
@@ -12284,7 +13621,7 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D2" s="8"/>
       <c r="E2" s="9"/>
@@ -12293,7 +13630,7 @@
         <v>51</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>173</v>
@@ -12327,7 +13664,7 @@
         <v>47</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>173</v>
@@ -12354,7 +13691,7 @@
         <v>53</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>174</v>
@@ -12378,7 +13715,7 @@
         <v>59</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>173</v>
@@ -12399,7 +13736,7 @@
         <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
@@ -12410,7 +13747,7 @@
         <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>175</v>
@@ -12431,7 +13768,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>54</v>
@@ -12442,7 +13779,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>173</v>
@@ -12461,7 +13798,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>56</v>
@@ -12472,7 +13809,7 @@
         <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>0</v>
@@ -12504,7 +13841,7 @@
         <v>68</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>173</v>
@@ -12536,7 +13873,7 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>175</v>
@@ -12570,7 +13907,7 @@
         <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>0</v>
@@ -12600,7 +13937,7 @@
         <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>0</v>
@@ -12619,7 +13956,7 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
@@ -12628,7 +13965,7 @@
         <v>75</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>175</v>
@@ -12644,7 +13981,7 @@
         <v>108</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C14" s="4">
         <v>2</v>
@@ -12656,7 +13993,7 @@
         <v>109</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>174</v>
@@ -12674,7 +14011,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C15" s="4">
         <v>2</v>
@@ -12686,7 +14023,7 @@
         <v>110</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>174</v>
@@ -12705,7 +14042,7 @@
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="4" t="s">
@@ -12718,7 +14055,7 @@
         <v>76</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>176</v>
@@ -12731,32 +14068,32 @@
     </row>
     <row r="17" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="8" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E17" s="4">
         <v>1270</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>176</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>58</v>
@@ -12772,7 +14109,7 @@
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
       <c r="D18" s="1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -12780,7 +14117,7 @@
         <v>48</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>176</v>
@@ -12808,7 +14145,7 @@
         <v>86</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>173</v>
@@ -12824,13 +14161,13 @@
         <v>83</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>550</v>
       </c>
       <c r="E20" s="9">
         <v>1300</v>
@@ -12842,7 +14179,7 @@
         <v>85</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>177</v>
@@ -12876,7 +14213,7 @@
         <v>90</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>176</v>
@@ -12892,21 +14229,21 @@
         <v>92</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C22" s="4">
         <v>2</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="1" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>0</v>
@@ -12925,10 +14262,10 @@
         <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -12936,7 +14273,7 @@
         <v>74</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>175</v>
@@ -12947,7 +14284,7 @@
     </row>
     <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="4"/>
@@ -12955,10 +14292,10 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>173</v>
@@ -12972,13 +14309,13 @@
         <v>93</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -12986,7 +14323,7 @@
         <v>94</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>175</v>
@@ -13002,11 +14339,11 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="8" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -13014,7 +14351,7 @@
         <v>30</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>173</v>
@@ -13034,13 +14371,13 @@
         <v>16</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E27" s="4">
         <v>1704</v>
@@ -13052,7 +14389,7 @@
         <v>95</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>173</v>
@@ -13061,7 +14398,7 @@
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
@@ -13072,10 +14409,10 @@
         <v>100</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -13083,7 +14420,7 @@
         <v>99</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>173</v>
@@ -13106,7 +14443,7 @@
         <v>102</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>0</v>
@@ -13135,7 +14472,7 @@
         <v>104</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>173</v>
@@ -13161,7 +14498,7 @@
         <v>107</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>0</v>
@@ -13180,7 +14517,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>43</v>
@@ -13191,7 +14528,7 @@
         <v>96</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>173</v>
@@ -13209,7 +14546,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -13217,7 +14554,7 @@
         <v>26</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>176</v>
@@ -13229,26 +14566,26 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="8" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E34" s="4">
         <v>1286</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>173</v>
@@ -13282,7 +14619,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>173</v>
@@ -13310,7 +14647,7 @@
         <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>173</v>
@@ -13321,14 +14658,14 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C37" s="4"/>
       <c r="G37" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>173</v>
@@ -13342,10 +14679,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L257"/>
+  <dimension ref="A1:L256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -13363,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>41</v>
@@ -13378,7 +14715,7 @@
         <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>172</v>
@@ -13398,34 +14735,34 @@
         <v>221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E2" s="4">
         <v>1588</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>175</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>24</v>
@@ -13436,31 +14773,31 @@
         <v>223</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="E3" s="4">
         <v>1847</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -13474,37 +14811,37 @@
         <v>224</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E4" s="4">
         <v>1998</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -13512,7 +14849,7 @@
         <v>215</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C5" s="4">
         <v>2</v>
@@ -13524,25 +14861,25 @@
         <v>1268</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>288</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>173</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -13565,10 +14902,10 @@
         <v>134</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>173</v>
@@ -13577,10 +14914,10 @@
         <v>118</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -13588,37 +14925,37 @@
         <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C7" s="4">
         <v>4</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E7" s="9">
         <v>1998</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13626,37 +14963,37 @@
         <v>226</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C8" s="4">
         <v>4</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E8" s="9">
         <v>1998</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13664,13 +15001,13 @@
         <v>227</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C9" s="4">
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -13680,13 +15017,13 @@
         <v>228</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C10" s="4">
         <v>2</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
@@ -13696,7 +15033,7 @@
         <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -13708,13 +15045,13 @@
         <v>1103</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>173</v>
@@ -13726,21 +15063,21 @@
         <v>58</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>24</v>
@@ -13749,10 +15086,10 @@
         <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>176</v>
@@ -13772,13 +15109,13 @@
         <v>230</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C13" s="4">
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -13788,13 +15125,13 @@
         <v>231</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C14" s="4">
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -13804,13 +15141,13 @@
         <v>232</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -13820,37 +15157,37 @@
         <v>234</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C16" s="4">
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="1" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>177</v>
@@ -13864,13 +15201,13 @@
         <v>235</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="C18" s="4">
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -13880,13 +15217,13 @@
         <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
@@ -13895,16 +15232,16 @@
         <v>24</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>58</v>
@@ -13915,13 +15252,13 @@
         <v>240</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E20" s="9">
         <v>1319</v>
@@ -13930,36 +15267,36 @@
         <v>705</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>173</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C21" s="4">
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
@@ -13987,7 +15324,7 @@
         <v>122</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>173</v>
@@ -14025,7 +15362,7 @@
         <v>117</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>173</v>
@@ -14042,16 +15379,16 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C24" s="4">
         <v>2</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -14059,30 +15396,30 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>58</v>
@@ -14091,16 +15428,16 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -14108,24 +15445,24 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C27" s="4">
         <v>3</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>293</v>
@@ -14134,21 +15471,21 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C28" s="4">
         <v>2</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>173</v>
@@ -14157,16 +15494,16 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -14174,16 +15511,16 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -14191,16 +15528,16 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -14208,35 +15545,35 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="C32" s="4">
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="L32" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -14244,35 +15581,35 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="C34" s="4">
         <v>2</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="L34" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -14280,29 +15617,29 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="L36" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C37" s="4">
         <v>2</v>
@@ -14313,39 +15650,39 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="L37" s="3" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C38" s="4">
         <v>3</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E38" s="4">
         <v>1705</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>58</v>
@@ -14356,85 +15693,85 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="C43" s="4">
         <v>4</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
@@ -14448,24 +15785,24 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>173</v>
@@ -14474,16 +15811,16 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C46" s="4">
         <v>3</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="8"/>
@@ -14491,16 +15828,16 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C47" s="4">
         <v>3</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="8"/>
@@ -14511,7 +15848,7 @@
         <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C48" s="4">
         <v>5</v>
@@ -14543,7 +15880,7 @@
         <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="C49" s="4">
         <v>2</v>
@@ -14561,7 +15898,7 @@
         <v>130</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>173</v>
@@ -14573,7 +15910,7 @@
         <v>127</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -14581,13 +15918,13 @@
         <v>241</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C50" s="4">
         <v>3</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -14597,13 +15934,13 @@
         <v>242</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -14613,43 +15950,43 @@
         <v>243</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="C53" s="4">
         <v>3</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>58</v>
@@ -14657,16 +15994,16 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -14676,189 +16013,189 @@
         <v>244</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C58" s="4">
         <v>3</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C61" s="4">
         <v>3</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C62" s="4">
         <v>3</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="C63" s="4">
         <v>3</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="C64" s="4">
         <v>2</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="C66" s="4">
         <v>3</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -14883,10 +16220,10 @@
         <v>141</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>173</v>
@@ -14903,16 +16240,16 @@
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="C68" s="4">
         <v>3</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -14920,16 +16257,16 @@
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="C69" s="4">
         <v>3</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -14940,51 +16277,51 @@
         <v>287</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C70" s="4">
         <v>3</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E70" s="9">
         <v>1645</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C71" s="4">
         <v>4</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -14992,16 +16329,16 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -15009,63 +16346,63 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C73" s="4">
         <v>3</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="L74" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -15076,13 +16413,13 @@
         <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="C76" s="4">
         <v>3</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="E76" s="9"/>
       <c r="F76" s="9"/>
@@ -15090,66 +16427,66 @@
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C77" s="4">
         <v>3</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="E77" s="9">
         <v>1701</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>177</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E78" s="9">
         <v>2000</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>293</v>
@@ -15161,61 +16498,61 @@
         <v>58</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C79" s="4">
         <v>3</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
       <c r="J79" s="4"/>
       <c r="L79" s="3" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C80" s="4">
         <v>3</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
       <c r="J80" s="4"/>
       <c r="L80" s="3" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C81" s="4">
         <v>3</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -15224,16 +16561,16 @@
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C82" s="4">
         <v>3</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>24</v>
@@ -15242,10 +16579,10 @@
         <v>24</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>175</v>
@@ -15257,7 +16594,7 @@
         <v>58</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -15271,7 +16608,7 @@
         <v>3</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="E83" s="9">
         <v>1025</v>
@@ -15280,10 +16617,10 @@
         <v>141</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>173</v>
@@ -15300,16 +16637,16 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="C84" s="4">
         <v>3</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="E84" s="9"/>
       <c r="F84" s="9"/>
@@ -15317,16 +16654,16 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="C85" s="4">
         <v>3</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -15334,16 +16671,16 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C86" s="4">
         <v>3</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -15351,21 +16688,21 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="C87" s="4">
         <v>3</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>173</v>
@@ -15374,16 +16711,16 @@
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C88" s="4">
         <v>3</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -15391,16 +16728,16 @@
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C89" s="4">
         <v>3</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9"/>
@@ -15411,13 +16748,13 @@
         <v>197</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C90" s="4">
         <v>2</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9"/>
@@ -15425,21 +16762,21 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="C91" s="4">
         <v>2</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
       <c r="G91" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>173</v>
@@ -15448,54 +16785,54 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
       <c r="E92" s="9">
         <v>1998</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="K92" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C93" s="4">
         <v>3</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -15503,16 +16840,16 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -15520,7 +16857,7 @@
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>158</v>
@@ -15538,10 +16875,10 @@
         <v>141</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>173</v>
@@ -15553,7 +16890,7 @@
         <v>160</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -15561,13 +16898,13 @@
         <v>289</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="C96" s="4">
         <v>2</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>290</v>
@@ -15593,7 +16930,7 @@
         <v>308</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
@@ -15601,25 +16938,25 @@
         <v>195</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C98" s="4">
         <v>2</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E98" s="4">
         <v>1382</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="I98" s="1" t="s">
         <v>173</v>
@@ -15628,10 +16965,10 @@
         <v>146</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
@@ -15639,33 +16976,33 @@
         <v>212</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="C99" s="4">
         <v>2</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="C100" s="4">
         <v>3</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>173</v>
@@ -15673,16 +17010,16 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="C101" s="4">
         <v>3</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
@@ -15690,13 +17027,13 @@
         <v>280</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="C102" s="4">
         <v>2</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
@@ -15704,7 +17041,7 @@
         <v>162</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C103" s="4">
         <v>3</v>
@@ -15722,7 +17059,7 @@
         <v>165</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>173</v>
@@ -15734,7 +17071,7 @@
         <v>166</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
@@ -15742,13 +17079,13 @@
         <v>201</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="C104" s="4">
         <v>2</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -15756,27 +17093,27 @@
         <v>222</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C106" s="4">
         <v>3</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="E106" s="4" t="s">
         <v>24</v>
@@ -15785,39 +17122,39 @@
         <v>24</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="C107" s="4">
         <v>3</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K107" s="1" t="s">
         <v>58</v>
@@ -15826,31 +17163,31 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
       <c r="C108" s="4">
         <v>2</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
       <c r="L108" s="3"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C109" s="4">
         <v>2</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="L109" s="3"/>
     </row>
@@ -15859,27 +17196,27 @@
         <v>237</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="C110" s="4">
         <v>2</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E111" s="4" t="s">
         <v>24</v>
@@ -15888,10 +17225,10 @@
         <v>24</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>173</v>
@@ -15900,10 +17237,10 @@
         <v>24</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
@@ -15929,7 +17266,7 @@
         <v>159</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>173</v>
@@ -15941,35 +17278,35 @@
         <v>171</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="C113" s="4">
         <v>2</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C114" s="4">
         <v>2</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E114" s="4" t="s">
         <v>24</v>
@@ -15978,10 +17315,10 @@
         <v>24</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>293</v>
@@ -15990,7 +17327,7 @@
         <v>24</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>24</v>
@@ -15998,104 +17335,104 @@
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="C115" s="4">
         <v>2</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="E115" s="4">
         <v>1892</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I115" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K115" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="C116" s="4">
         <v>2</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="E116" s="4">
         <v>1290</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="K116" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C117" s="4">
         <v>3</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>809</v>
+        <v>922</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>58</v>
@@ -16107,28 +17444,28 @@
         <v>291</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C118" s="4">
         <v>2</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E118" s="4">
         <v>1366</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>173</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K118" s="1" t="s">
         <v>22</v>
@@ -16139,46 +17476,46 @@
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C119" s="4">
         <v>2</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="C120" s="4">
         <v>2</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E120" s="4">
         <v>1245</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>22</v>
@@ -16187,33 +17524,33 @@
         <v>58</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C121" s="4">
         <v>2</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E121" s="4">
         <v>1327</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>177</v>
@@ -16225,7 +17562,7 @@
         <v>58</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.3">
@@ -16239,7 +17576,7 @@
         <v>2</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="E122" s="4">
         <v>871</v>
@@ -16248,10 +17585,10 @@
         <v>181</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>173</v>
@@ -16260,124 +17597,124 @@
         <v>146</v>
       </c>
       <c r="K122" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C123" s="4">
         <v>2</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C124" s="4">
         <v>3</v>
       </c>
       <c r="D124" s="8" t="s">
-        <v>759</v>
+        <v>921</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C125" s="4">
         <v>2</v>
       </c>
       <c r="D125" s="8" t="s">
-        <v>592</v>
+        <v>919</v>
       </c>
       <c r="E125" s="4">
         <v>1584</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="I125" s="1" t="s">
         <v>293</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="K125" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="C126" s="4">
         <v>3</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>761</v>
+        <v>920</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C127" s="4">
         <v>2</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="C128" s="4">
         <v>3</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="I128" s="1" t="s">
         <v>177</v>
@@ -16388,59 +17725,91 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C129" s="4">
         <v>2</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>805</v>
+        <v>918</v>
       </c>
       <c r="L129" s="4"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="8"/>
+        <v>479</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="C130" s="4">
+        <v>2</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>917</v>
+      </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="8"/>
+        <v>480</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>924</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="8"/>
+      <c r="B132" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C132" s="4">
+        <v>2</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>926</v>
+      </c>
       <c r="L132" s="3" t="s">
-        <v>317</v>
+        <v>929</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="8"/>
-      <c r="L133" s="3"/>
+        <v>603</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="C133" s="4">
+        <v>3</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>928</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>930</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="4"/>
+      <c r="C134" s="4">
+        <v>3</v>
+      </c>
       <c r="D134" s="8" t="s">
         <v>183</v>
       </c>
@@ -16453,6 +17822,9 @@
       <c r="G134" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="H134" s="1" t="s">
+        <v>725</v>
+      </c>
       <c r="I134" s="1" t="s">
         <v>173</v>
       </c>
@@ -16462,45 +17834,62 @@
       <c r="K134" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="L134" s="3" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="8"/>
+        <v>497</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>933</v>
+      </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="8"/>
+      <c r="B136" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="C137" s="4">
         <v>2</v>
       </c>
       <c r="D137" s="8" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
       <c r="E137" s="4">
         <v>1721</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="I137" s="1" t="s">
         <v>173</v>
@@ -16534,126 +17923,183 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="8"/>
-      <c r="G139" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>173</v>
+        <v>498</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C139" s="4">
+        <v>2</v>
+      </c>
+      <c r="D139" s="8" t="s">
+        <v>937</v>
       </c>
       <c r="L139" s="3"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="8"/>
-      <c r="L140" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>938</v>
+      </c>
+      <c r="C140" s="4">
+        <v>3</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>939</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="I140" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="8"/>
-      <c r="G141" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="I141" s="1" t="s">
-        <v>173</v>
+        <v>202</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="C141" s="4">
+        <v>2</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>941</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="8"/>
+        <v>881</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C142" s="4">
+        <v>2</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>883</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1259</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>891</v>
+        <v>481</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>892</v>
+        <v>942</v>
       </c>
       <c r="C143" s="4">
         <v>2</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>893</v>
-      </c>
-      <c r="E143" s="4">
-        <v>1259</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="I143" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="K143" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L143" s="3" t="s">
-        <v>898</v>
+        <v>943</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="8"/>
+        <v>482</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="C144" s="4">
+        <v>3</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>945</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="8"/>
+        <v>909</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C146" s="4">
+        <v>2</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>919</v>
+        <v>468</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="C147" s="4">
         <v>2</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>907</v>
+        <v>530</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>293</v>
@@ -16664,293 +18110,412 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="C148" s="4">
         <v>2</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>921</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="I148" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="K148" s="1" t="s">
-        <v>58</v>
+        <v>947</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="8"/>
+        <v>283</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>703</v>
+      </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="8"/>
+        <v>469</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C150" s="4">
+        <v>3</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>915</v>
+      </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>473</v>
+        <v>600</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>924</v>
+        <v>948</v>
       </c>
       <c r="C151" s="4">
         <v>3</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="8"/>
+        <v>506</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C152" s="4">
+        <v>2</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="C153" s="4">
+        <v>2</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>953</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="8"/>
-      <c r="G154" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>173</v>
+        <v>611</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C154" s="4">
+        <v>2</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="8"/>
+        <v>707</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="C155" s="4">
+        <v>2</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>709</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>712</v>
+        <v>792</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>713</v>
+        <v>793</v>
       </c>
       <c r="C156" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>714</v>
+        <v>956</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="I156" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J156" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L156" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>799</v>
+        <v>494</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>800</v>
+        <v>957</v>
       </c>
       <c r="C157" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="H157" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="I157" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J157" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K157" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L157" s="10" t="s">
-        <v>24</v>
+        <v>958</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="8"/>
+        <v>483</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C158" s="4">
+        <v>2</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="8"/>
+        <v>499</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>962</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="8"/>
+        <v>271</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C160" s="4">
+        <v>2</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>964</v>
+      </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C161" s="4"/>
-      <c r="D161" s="8"/>
+        <v>399</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C161" s="4">
+        <v>3</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="8"/>
+        <v>209</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C162" s="4">
+        <v>3</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C163" s="4"/>
-      <c r="D163" s="8"/>
-      <c r="G163" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="I163" s="1" t="s">
-        <v>173</v>
+        <v>507</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C163" s="4">
+        <v>3</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="C164" s="4"/>
-      <c r="D164" s="8"/>
+        <v>508</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C164" s="4">
+        <v>3</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>973</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="C165" s="4"/>
-      <c r="D165" s="8"/>
+        <v>298</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C165" s="4">
+        <v>2</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I165" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>298</v>
+        <v>484</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C166" s="4"/>
+        <v>974</v>
+      </c>
+      <c r="C166" s="4">
+        <v>4</v>
+      </c>
       <c r="D166" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I166" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="L166" s="1" t="s">
-        <v>302</v>
+        <v>975</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="C167" s="4"/>
-      <c r="D167" s="8"/>
+        <v>245</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C167" s="4">
+        <v>2</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I167" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C168" s="4"/>
+        <v>303</v>
+      </c>
+      <c r="C168" s="4">
+        <v>3</v>
+      </c>
       <c r="D168" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="I168" s="1" t="s">
-        <v>177</v>
+        <v>304</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="L168" s="1" t="s">
-        <v>250</v>
+        <v>87</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>194</v>
+        <v>470</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C169" s="4"/>
+        <v>977</v>
+      </c>
+      <c r="C169" s="4">
+        <v>2</v>
+      </c>
       <c r="D169" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="K169" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L169" s="3" t="s">
-        <v>331</v>
-      </c>
+        <v>978</v>
+      </c>
+      <c r="L169" s="3"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C170" s="4"/>
-      <c r="D170" s="8"/>
-      <c r="L170" s="3"/>
+        <v>238</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C170" s="4">
+        <v>2</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C171" s="4"/>
-      <c r="D171" s="8"/>
+        <v>333</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="C171" s="4">
+        <v>2</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="I171" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C172" s="4"/>
       <c r="D172" s="8"/>
       <c r="G172" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I172" s="1" t="s">
         <v>173</v>
@@ -16958,12 +18523,12 @@
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>338</v>
+        <v>216</v>
       </c>
       <c r="C173" s="4"/>
       <c r="D173" s="8"/>
       <c r="G173" s="1" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="I173" s="1" t="s">
         <v>173</v>
@@ -16971,270 +18536,281 @@
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="C174" s="4"/>
       <c r="D174" s="8"/>
-      <c r="G174" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="I174" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C175" s="4"/>
-      <c r="D175" s="8"/>
+        <v>439</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C175" s="4">
+        <v>2</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="E175" s="4">
+        <v>1568</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I175" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C176" s="4">
-        <v>2</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="E176" s="4">
-        <v>1568</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="H176" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="I176" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K176" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L176" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="C176" s="4"/>
+      <c r="D176" s="8"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
-        <v>218</v>
+        <v>605</v>
       </c>
       <c r="C177" s="4"/>
       <c r="D177" s="8"/>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
-        <v>610</v>
+        <v>206</v>
       </c>
       <c r="C178" s="4"/>
       <c r="D178" s="8"/>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="C179" s="4"/>
       <c r="D179" s="8"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>277</v>
+        <v>485</v>
       </c>
       <c r="C180" s="4"/>
       <c r="D180" s="8"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="C181" s="4"/>
+        <v>670</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>543</v>
+      </c>
       <c r="D181" s="8"/>
+      <c r="G181" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I181" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>547</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="C182" s="4"/>
       <c r="D182" s="8"/>
-      <c r="G182" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="H182" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I182" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J182" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K182" s="1" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="C183" s="4"/>
       <c r="D183" s="8"/>
+      <c r="G183" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I183" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="8"/>
+        <v>365</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>366</v>
+      </c>
       <c r="G184" s="1" t="s">
-        <v>312</v>
+        <v>447</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>535</v>
       </c>
       <c r="I184" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
-        <v>368</v>
+        <v>445</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>546</v>
+        <v>448</v>
+      </c>
+      <c r="C185" s="4">
+        <v>2</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>369</v>
+        <v>446</v>
+      </c>
+      <c r="E185" s="4">
+        <v>1830</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>450</v>
+        <v>983</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>541</v>
       </c>
       <c r="I185" s="1" t="s">
         <v>177</v>
       </c>
+      <c r="J185" s="3" t="s">
+        <v>450</v>
+      </c>
       <c r="K185" s="1" t="s">
-        <v>370</v>
+        <v>58</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
-        <v>448</v>
+        <v>200</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C186" s="4"/>
+        <v>444</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>543</v>
+      </c>
       <c r="D186" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="E186" s="4">
-        <v>1830</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G186" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="I186" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J186" s="3" t="s">
-        <v>454</v>
+        <v>546</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L186" s="3" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="D187" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>389</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C187" s="4"/>
+      <c r="D187" s="8"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
-        <v>504</v>
+        <v>349</v>
       </c>
       <c r="C188" s="4"/>
       <c r="D188" s="8"/>
+      <c r="G188" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I188" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>352</v>
+        <v>486</v>
       </c>
       <c r="C189" s="4"/>
       <c r="D189" s="8"/>
-      <c r="G189" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I189" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>490</v>
+        <v>311</v>
       </c>
       <c r="C190" s="4"/>
       <c r="D190" s="8"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
-        <v>311</v>
+        <v>487</v>
       </c>
       <c r="C191" s="4"/>
       <c r="D191" s="8"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
-        <v>491</v>
+        <v>756</v>
       </c>
       <c r="C192" s="4"/>
       <c r="D192" s="8"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
-        <v>763</v>
+        <v>199</v>
       </c>
       <c r="C193" s="4"/>
       <c r="D193" s="8"/>
+      <c r="G193" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I193" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
-        <v>199</v>
+        <v>314</v>
       </c>
       <c r="C194" s="4"/>
       <c r="D194" s="8"/>
       <c r="G194" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="I194" s="1" t="s">
         <v>173</v>
@@ -17242,154 +18818,153 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
-        <v>314</v>
+        <v>501</v>
       </c>
       <c r="C195" s="4"/>
       <c r="D195" s="8"/>
-      <c r="G195" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="I195" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
-        <v>505</v>
+        <v>278</v>
       </c>
       <c r="C196" s="4"/>
       <c r="D196" s="8"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>278</v>
+        <v>471</v>
       </c>
       <c r="C197" s="4"/>
       <c r="D197" s="8"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
-        <v>475</v>
+        <v>187</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C198" s="4"/>
-      <c r="D198" s="8"/>
+      <c r="D198" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E198" s="4">
+        <v>1257</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I198" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C199" s="4"/>
-      <c r="D199" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E199" s="4">
-        <v>1257</v>
-      </c>
-      <c r="F199" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G199" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I199" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J199" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="D199" s="8"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="C200" s="4"/>
-      <c r="D200" s="8"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
-        <v>523</v>
+        <v>337</v>
       </c>
       <c r="C201" s="4"/>
+      <c r="G201" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I201" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="C202" s="4"/>
-      <c r="G202" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I202" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C203" s="4"/>
+      <c r="G203" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I203" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
-        <v>342</v>
+        <v>495</v>
       </c>
       <c r="C204" s="4"/>
-      <c r="G204" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="I204" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
-        <v>499</v>
+        <v>236</v>
       </c>
       <c r="C205" s="4"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="C206" s="4"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C207" s="4"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="C208" s="4"/>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
-        <v>210</v>
+        <v>502</v>
       </c>
       <c r="C209" s="4"/>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
-        <v>506</v>
+        <v>193</v>
       </c>
       <c r="C210" s="4"/>
+      <c r="G210" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="I210" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="C211" s="4"/>
       <c r="G211" s="1" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="I211" s="1" t="s">
         <v>173</v>
@@ -17397,115 +18972,136 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
-        <v>217</v>
+        <v>509</v>
       </c>
       <c r="C212" s="4"/>
-      <c r="G212" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="I212" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
-        <v>513</v>
+        <v>606</v>
       </c>
       <c r="C213" s="4"/>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="C214" s="4"/>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C215" s="4"/>
+        <v>795</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C215" s="4">
+        <v>3</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="I215" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J215" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C216" s="4">
-        <v>3</v>
-      </c>
-      <c r="D216" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="E216" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F216" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C216" s="4"/>
       <c r="G216" s="1" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="I216" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J216" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K216" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L216" s="3" t="s">
-        <v>562</v>
+        <v>173</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
-        <v>207</v>
+        <v>488</v>
       </c>
       <c r="C217" s="4"/>
-      <c r="G217" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="I217" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
-        <v>492</v>
+        <v>286</v>
       </c>
       <c r="C218" s="4"/>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
-        <v>286</v>
+        <v>489</v>
       </c>
       <c r="C219" s="4"/>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
-        <v>493</v>
+        <v>220</v>
       </c>
       <c r="C220" s="4"/>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
-        <v>220</v>
+        <v>415</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="C221" s="4"/>
+      <c r="D221" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="I221" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J221" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
-        <v>418</v>
+        <v>276</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C222" s="4"/>
       <c r="D222" s="8" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E222" s="4" t="s">
         <v>24</v>
@@ -17514,10 +19110,10 @@
         <v>24</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="I222" s="1" t="s">
-        <v>293</v>
+        <v>173</v>
       </c>
       <c r="J222" s="4" t="s">
         <v>24</v>
@@ -17526,161 +19122,140 @@
         <v>22</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="C223" s="4"/>
-      <c r="D223" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G223" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I223" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K223" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L223" s="3" t="s">
-        <v>424</v>
-      </c>
+      <c r="D223" s="8"/>
+      <c r="J223" s="4"/>
+      <c r="L223" s="3"/>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C224" s="4"/>
-      <c r="D224" s="8"/>
-      <c r="J224" s="4"/>
-      <c r="L224" s="3"/>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="C225" s="4"/>
+        <v>710</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C225" s="4">
+        <v>2</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>712</v>
+      </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
-        <v>715</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C226" s="4">
-        <v>2</v>
-      </c>
-      <c r="D226" s="8" t="s">
-        <v>717</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="C226" s="4"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
-        <v>192</v>
+        <v>510</v>
       </c>
       <c r="C227" s="4"/>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>514</v>
+        <v>398</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="C228" s="4"/>
+      <c r="D228" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I228" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J228" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>414</v>
+        <v>623</v>
       </c>
       <c r="C229" s="4"/>
-      <c r="D229" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G229" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="I229" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K229" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="D229" s="8"/>
+      <c r="J229" s="4"/>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="C230" s="4"/>
-      <c r="D230" s="8"/>
+        <v>694</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C230" s="4">
+        <v>3</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>714</v>
+      </c>
       <c r="J230" s="4"/>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C231" s="4">
-        <v>3</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="J231" s="4"/>
+        <v>342</v>
+      </c>
+      <c r="C231" s="4"/>
+      <c r="G231" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="I231" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="C232" s="4"/>
-      <c r="G232" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="I232" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="C233" s="4"/>
+      <c r="G233" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="I233" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C234" s="4"/>
       <c r="G234" s="1" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="I234" s="1" t="s">
         <v>173</v>
@@ -17688,70 +19263,71 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
-        <v>346</v>
+        <v>211</v>
       </c>
       <c r="C235" s="4"/>
-      <c r="G235" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I235" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
-        <v>211</v>
+        <v>604</v>
       </c>
       <c r="C236" s="4"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
-        <v>609</v>
+        <v>490</v>
       </c>
       <c r="C237" s="4"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C238" s="4"/>
+        <v>214</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C238" s="4">
+        <v>2</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E238" s="4">
+        <v>952</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="C239" s="4"/>
-      <c r="D239" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="E239" s="4">
-        <v>952</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G239" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="I239" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J239" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K239" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="L239" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="D239" s="8"/>
+      <c r="L239" s="3"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C240" s="4"/>
       <c r="D240" s="8"/>
@@ -17759,7 +19335,7 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C241" s="4"/>
       <c r="D241" s="8"/>
@@ -17767,177 +19343,183 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="C242" s="4"/>
-      <c r="D242" s="8"/>
-      <c r="L242" s="3"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
-        <v>213</v>
+        <v>473</v>
       </c>
       <c r="C243" s="4"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="C244" s="4"/>
+        <v>355</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C244" s="4">
+        <v>2</v>
+      </c>
+      <c r="D244" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E244" s="4">
+        <v>1384</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
-        <v>358</v>
+        <v>671</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C245" s="4"/>
+        <v>673</v>
+      </c>
+      <c r="C245" s="4">
+        <v>3</v>
+      </c>
       <c r="D245" s="8" t="s">
-        <v>377</v>
+        <v>674</v>
       </c>
       <c r="E245" s="4">
-        <v>1384</v>
+        <v>1299</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>378</v>
+        <v>675</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>359</v>
+        <v>676</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>531</v>
       </c>
       <c r="I245" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>146</v>
+        <v>461</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>379</v>
+        <v>22</v>
       </c>
       <c r="L245" s="3" t="s">
-        <v>380</v>
+        <v>672</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C246" s="4">
-        <v>3</v>
-      </c>
-      <c r="D246" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="E246" s="4">
-        <v>1299</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="G246" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="H246" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="I246" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J246" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L246" s="3" t="s">
-        <v>677</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="C246" s="4"/>
+      <c r="D246" s="8"/>
+      <c r="L246" s="3"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C247" s="4"/>
-      <c r="D247" s="8"/>
-      <c r="L247" s="3"/>
+        <v>672</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C247" s="4">
+        <v>3</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E247" s="4">
+        <v>1299</v>
+      </c>
+      <c r="F247" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
-        <v>677</v>
+        <v>257</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C248" s="4">
-        <v>3</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C248" s="4"/>
       <c r="D248" s="8" t="s">
-        <v>679</v>
+        <v>259</v>
       </c>
       <c r="E248" s="4">
-        <v>1299</v>
+        <v>1773</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>680</v>
+        <v>260</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="H248" s="1" t="s">
-        <v>535</v>
+        <v>261</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J248" s="1" t="s">
-        <v>465</v>
+        <v>262</v>
+      </c>
+      <c r="J248" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>22</v>
+        <v>263</v>
       </c>
       <c r="L248" s="3" t="s">
-        <v>676</v>
+        <v>264</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>258</v>
+        <v>474</v>
       </c>
       <c r="C249" s="4"/>
-      <c r="D249" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="E249" s="4">
-        <v>1773</v>
-      </c>
-      <c r="F249" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="G249" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I249" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="J249" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K249" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L249" s="3" t="s">
-        <v>264</v>
-      </c>
+      <c r="D249" s="8"/>
+      <c r="J249" s="4"/>
+      <c r="L249" s="3"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C250" s="4"/>
       <c r="D250" s="8"/>
@@ -17946,110 +19528,101 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
-        <v>479</v>
+        <v>265</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>266</v>
       </c>
       <c r="C251" s="4"/>
-      <c r="D251" s="8"/>
-      <c r="J251" s="4"/>
+      <c r="D251" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="E251" s="4">
+        <v>1989</v>
+      </c>
+      <c r="F251" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J251" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="L251" s="3"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>266</v>
+        <v>491</v>
       </c>
       <c r="C252" s="4"/>
-      <c r="D252" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="E252" s="4">
-        <v>1989</v>
-      </c>
-      <c r="F252" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G252" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="I252" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J252" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K252" s="1" t="s">
-        <v>269</v>
-      </c>
+      <c r="D252" s="8"/>
+      <c r="J252" s="4"/>
       <c r="L252" s="3"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
-        <v>495</v>
+        <v>198</v>
       </c>
       <c r="C253" s="4"/>
-      <c r="D253" s="8"/>
-      <c r="J253" s="4"/>
-      <c r="L253" s="3"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
-        <v>198</v>
+        <v>357</v>
       </c>
       <c r="C254" s="4"/>
+      <c r="G254" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
-        <v>360</v>
+        <v>208</v>
       </c>
       <c r="C255" s="4"/>
-      <c r="G255" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="I255" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A256" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C256" s="4"/>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
+      <c r="A256" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C256" s="4">
+        <v>2</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E256" s="4">
+        <v>1361</v>
+      </c>
+      <c r="F256" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="G256" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="I256" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C257" s="4">
-        <v>2</v>
-      </c>
-      <c r="D257" s="8" t="s">
+      <c r="J256" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L256" s="3" t="s">
         <v>518</v>
-      </c>
-      <c r="E257" s="4">
-        <v>1361</v>
-      </c>
-      <c r="F257" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="G257" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I257" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="J257" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L257" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/Database_Basque_toponyms_ending_in_-ga.xlsx
+++ b/Database_Basque_toponyms_ending_in_-ga.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Contributions\Talks\To_be_given\2024\ICOS28_2024_The_Basque_locative_suffix_-ga_through_the_lens_of_onomastics\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70045C4-A883-4BB2-9839-69453CE9FA30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560CF82E-1982-4C75-B5C1-806BD0AE367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="0" windowWidth="14580" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14265" yWindow="0" windowWidth="14640" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of onyms in -ga" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="1236">
   <si>
     <t>Toponym</t>
   </si>
@@ -9051,9 +9051,6 @@
     </r>
   </si>
   <si>
-    <t>Place of soft earth'</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <i/>
@@ -17458,9 +17455,6 @@
     <t>Bagoederraga, Pagoederraga</t>
   </si>
   <si>
-    <t>Bazterrotzaga</t>
-  </si>
-  <si>
     <t>Beroaga</t>
   </si>
   <si>
@@ -17546,6 +17540,1388 @@
   </si>
   <si>
     <t>Idurriaga</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aetz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'inhabitant of Aezkoa (region of northeast Navarre)' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>herri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'land, country' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) land(s) belonging to Aezkoans'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haitz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'rock' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'below' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (land, area(s)) under the rock'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haritz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak tree' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gorri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'red' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>arpos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*auña</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>arte</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'holm oak' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sko</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'diminutive' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) little holm oak(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>artesi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'crack, fissure, split' (?) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) (many) fissure(s)' (?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>pago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'beech' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'beautiful' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) beautiful beech tree(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bazter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'corner, side, riverside, shore, verge' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hotz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'cold' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) cold area(s)'</t>
+  </si>
+  <si>
+    <t>Mountain in Altsasu, west Navarre</t>
+  </si>
+  <si>
+    <r>
+      <t>Bazterro</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zaga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'heat, warmth' or 'hot, warm' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) hot area(s)'</t>
+  </si>
+  <si>
+    <t>Place of (the) soft earth'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>bide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'path' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'beautiful' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) beautiful path(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>buztin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'clay' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zuri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'white' -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) white clay'</t>
+  </si>
+  <si>
+    <t>242 years</t>
+  </si>
+  <si>
+    <t>620 years</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>eliza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'church' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zahar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'old' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) old church(es)'</t>
+  </si>
+  <si>
+    <t>Place of (the) warm area(s)' or 'Place of warmth'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>epel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'warm' or 'warmth' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ihi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, *</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ini</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'rush' + -(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>andur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'scarce, shabby, little, few' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) many shabby rushes'</t>
+  </si>
+  <si>
+    <t>442 years</t>
+  </si>
+  <si>
+    <t>Location in Luzaide, north Navarre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>erdi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'center, middle' or 'half' + -(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>z</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(a) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) middle (land(s))' or 'Place of (the) land(s) in the middle' (?)</t>
+  </si>
+  <si>
+    <t>613 years</t>
+  </si>
+  <si>
+    <t>Location in Eugi, north Navarre</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gomiz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (first name) + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) land belonging to Gomiz'</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>idurri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?)</t>
+    </r>
+  </si>
+  <si>
+    <t>235 years</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>itur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">) 'water source, fountain' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>gaitz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'bad, diffucult, arduous' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) bad water source(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hotz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'cold' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) cold water source(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>iturri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'water source, fountain' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>zabal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'wide, open, field' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) wide water source(s)' or 'Place of (the) water source field(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mendi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'mountain' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>kil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'diminutive + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) small mountain(s)' (?)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>mendi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'mountain' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>ko</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'diminutive + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) small mountain(s)'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>sorgin</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'witch' + </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>haritz</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 'oak' + -</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>aga</t>
+    </r>
+  </si>
+  <si>
+    <t>Place of (the) withc oak tree(s)'</t>
   </si>
 </sst>
 </file>
@@ -19034,8 +20410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B257" sqref="B257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.7109375" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -19161,10 +20537,17 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="8"/>
+        <v>1172</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>1183</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="1"/>
@@ -19487,26 +20870,33 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>1149</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1150</v>
       </c>
       <c r="C15" s="4">
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8"/>
+        <v>1168</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C16" s="4">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>1185</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
     </row>
@@ -19560,21 +20950,21 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>517</v>
@@ -19921,7 +21311,7 @@
         <v>590</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="C34" s="4">
         <v>3</v>
@@ -20063,10 +21453,10 @@
         <v>420</v>
       </c>
       <c r="G41" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="H41" s="1" t="s">
         <v>881</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>882</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>290</v>
@@ -20128,16 +21518,16 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>1130</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>1131</v>
       </c>
       <c r="C45" s="4">
         <v>3</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="L45" s="3"/>
     </row>
@@ -20253,7 +21643,7 @@
         <v>124</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C52" s="4">
         <v>5</v>
@@ -20285,7 +21675,7 @@
         <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
@@ -20323,13 +21713,13 @@
         <v>240</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C54" s="4">
         <v>3</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -20339,13 +21729,13 @@
         <v>241</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C55" s="4">
         <v>3</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -20355,13 +21745,13 @@
         <v>242</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C56" s="4">
         <v>3</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -20371,13 +21761,13 @@
         <v>628</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C57" s="4">
         <v>3</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -20402,7 +21792,7 @@
         <v>629</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C58" s="4">
         <v>2</v>
@@ -20418,13 +21808,13 @@
         <v>243</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C59" s="4">
         <v>3</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -20434,23 +21824,23 @@
         <v>630</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C60" s="4">
         <v>3</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C61" s="4">
         <v>2</v>
@@ -20466,23 +21856,30 @@
         <v>631</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C62" s="4">
         <v>3</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C63" s="4"/>
-      <c r="D63" s="8"/>
+        <v>1150</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C63" s="4">
+        <v>3</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>841</v>
+      </c>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
@@ -20491,13 +21888,13 @@
         <v>632</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C64" s="4">
         <v>3</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -20507,13 +21904,13 @@
         <v>633</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C65" s="4">
         <v>3</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -20539,13 +21936,13 @@
         <v>635</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C67" s="4">
         <v>3</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
@@ -20571,23 +21968,30 @@
         <v>637</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C69" s="4">
         <v>2</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C70" s="4"/>
-      <c r="D70" s="8"/>
+        <v>1179</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>362</v>
+      </c>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
@@ -20596,13 +22000,13 @@
         <v>638</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C71" s="4">
         <v>3</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -20612,13 +22016,13 @@
         <v>639</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C72" s="4">
         <v>3</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -20643,10 +22047,10 @@
         <v>141</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>173</v>
@@ -20666,13 +22070,13 @@
         <v>640</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C74" s="4">
         <v>3</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -20683,13 +22087,13 @@
         <v>641</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C75" s="4">
         <v>3</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E75" s="9"/>
       <c r="F75" s="9"/>
@@ -20730,7 +22134,7 @@
         <v>58</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -20738,13 +22142,13 @@
         <v>642</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C77" s="4">
         <v>4</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -20752,25 +22156,25 @@
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C78" s="4">
         <v>3</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="E78" s="9">
         <v>1071</v>
       </c>
       <c r="F78" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>1120</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>1121</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>523</v>
@@ -20779,7 +22183,7 @@
         <v>290</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>58</v>
@@ -20791,13 +22195,13 @@
         <v>643</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C79" s="4">
         <v>3</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E79" s="9"/>
       <c r="F79" s="9"/>
@@ -20808,13 +22212,13 @@
         <v>319</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C80" s="4">
         <v>3</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
@@ -20822,13 +22226,13 @@
         <v>320</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -20836,18 +22240,18 @@
         <v>644</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C81" s="4">
         <v>3</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
       <c r="L81" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -20855,13 +22259,13 @@
         <v>645</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C82" s="4">
         <v>3</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
@@ -20872,13 +22276,13 @@
         <v>202</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C83" s="4">
         <v>3</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="9"/>
@@ -20895,7 +22299,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E84" s="9">
         <v>1701</v>
@@ -20977,7 +22381,7 @@
       <c r="F86" s="9"/>
       <c r="J86" s="4"/>
       <c r="L86" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -20997,7 +22401,7 @@
       <c r="F87" s="9"/>
       <c r="J87" s="4"/>
       <c r="L87" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -21067,7 +22471,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E90" s="9">
         <v>1025</v>
@@ -21076,7 +22480,7 @@
         <v>141</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>516</v>
@@ -21099,13 +22503,13 @@
         <v>648</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="E91" s="9"/>
       <c r="F91" s="9"/>
@@ -21116,13 +22520,13 @@
         <v>649</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="9"/>
@@ -21133,13 +22537,13 @@
         <v>650</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C93" s="4">
         <v>3</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9"/>
@@ -21150,13 +22554,13 @@
         <v>360</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C94" s="4">
         <v>3</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E94" s="9"/>
       <c r="F94" s="9"/>
@@ -21173,13 +22577,13 @@
         <v>466</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C95" s="4">
         <v>3</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E95" s="9"/>
       <c r="F95" s="9"/>
@@ -21187,10 +22591,17 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="8"/>
+        <v>1151</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C96" s="4">
+        <v>3</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>1190</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="9"/>
       <c r="L96" s="3"/>
@@ -21200,13 +22611,13 @@
         <v>651</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C97" s="4">
         <v>3</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -21217,24 +22628,24 @@
         <v>197</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C98" s="4">
         <v>2</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
       <c r="G98" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="I98" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>1124</v>
       </c>
       <c r="L98" s="3"/>
     </row>
@@ -21243,13 +22654,13 @@
         <v>323</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C99" s="4">
         <v>2</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9"/>
@@ -21257,7 +22668,7 @@
         <v>324</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I99" s="1" t="s">
         <v>173</v>
@@ -21269,13 +22680,13 @@
         <v>652</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C100" s="4">
         <v>4</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E100" s="9">
         <v>1998</v>
@@ -21284,30 +22695,37 @@
         <v>607</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>806</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>807</v>
       </c>
       <c r="I100" s="1" t="s">
         <v>505</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K100" s="1" t="s">
         <v>22</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C101" s="4"/>
-      <c r="D101" s="8"/>
+        <v>1173</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>1192</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9"/>
       <c r="L101" s="3"/>
@@ -21334,7 +22752,7 @@
         <v>540</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C103" s="4">
         <v>3</v>
@@ -21389,13 +22807,13 @@
         <v>286</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>287</v>
@@ -21464,16 +22882,16 @@
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>1136</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>1137</v>
       </c>
       <c r="C108" s="4">
         <v>2</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
@@ -21481,13 +22899,13 @@
         <v>211</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C109" s="4">
         <v>2</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
@@ -21495,13 +22913,13 @@
         <v>321</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C110" s="4">
         <v>3</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>322</v>
@@ -21515,10 +22933,17 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="8"/>
+        <v>1180</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
@@ -21539,7 +22964,7 @@
         <v>277</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C113" s="4">
         <v>2</v>
@@ -21553,7 +22978,7 @@
         <v>162</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C114" s="4">
         <v>3</v>
@@ -21583,28 +23008,35 @@
         <v>166</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C115" s="4"/>
-      <c r="D115" s="8"/>
+        <v>1152</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C115" s="4">
+        <v>3</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>1194</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C116" s="4">
         <v>2</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.3">
@@ -21612,21 +23044,46 @@
         <v>221</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C117" s="4">
         <v>2</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C118" s="4"/>
-      <c r="D118" s="8"/>
+        <v>1198</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C118" s="4">
+        <v>3</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1782</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
@@ -21698,7 +23155,7 @@
         <v>2</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>790</v>
+        <v>1201</v>
       </c>
       <c r="L121" s="3"/>
     </row>
@@ -21719,18 +23176,32 @@
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C123" s="4"/>
-      <c r="D123" s="8"/>
+        <v>1153</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C123" s="4">
+        <v>2</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>1200</v>
+      </c>
       <c r="L123" s="3"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C124" s="4"/>
-      <c r="D124" s="8"/>
+        <v>1154</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C124" s="4">
+        <v>3</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>1203</v>
+      </c>
       <c r="L124" s="3"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.3">
@@ -21915,10 +23386,23 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="8"/>
+        <v>1155</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C131" s="4">
+        <v>3</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1404</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
@@ -21969,7 +23453,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>656</v>
@@ -22116,10 +23600,17 @@
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="8"/>
+        <v>1156</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C138" s="4">
+        <v>3</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
@@ -22132,7 +23623,7 @@
         <v>2</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E139" s="4">
         <v>871</v>
@@ -22141,7 +23632,7 @@
         <v>181</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>543</v>
@@ -22161,10 +23652,17 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="8"/>
+        <v>1157</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C140" s="4">
+        <v>2</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>1210</v>
+      </c>
       <c r="L140" s="3"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.3">
@@ -22183,10 +23681,35 @@
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="8"/>
+        <v>1174</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1411</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I142" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
@@ -22199,7 +23722,7 @@
         <v>3</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.3">
@@ -22213,7 +23736,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E144" s="4">
         <v>1584</v>
@@ -22251,7 +23774,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.3">
@@ -22282,10 +23805,10 @@
         <v>776</v>
       </c>
       <c r="G147" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="H147" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="I147" s="1" t="s">
         <v>177</v>
@@ -22305,7 +23828,7 @@
         <v>2</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L148" s="4"/>
     </row>
@@ -22314,13 +23837,13 @@
         <v>467</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C149" s="4">
         <v>2</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.3">
@@ -22328,13 +23851,13 @@
         <v>468</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C150" s="4">
         <v>2</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.3">
@@ -22342,16 +23865,16 @@
         <v>272</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C151" s="4">
         <v>2</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.3">
@@ -22359,16 +23882,16 @@
         <v>591</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C152" s="4">
         <v>3</v>
       </c>
       <c r="D152" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.3">
@@ -22406,21 +23929,21 @@
         <v>186</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B154" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="C154" s="4">
         <v>2</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="L154" s="3"/>
     </row>
@@ -22429,13 +23952,13 @@
         <v>485</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C155" s="4">
         <v>2</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.3">
@@ -22443,13 +23966,13 @@
         <v>281</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.3">
@@ -22457,22 +23980,22 @@
         <v>456</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C157" s="4">
         <v>2</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E157" s="4">
         <v>1721</v>
       </c>
       <c r="F157" s="4" t="s">
+        <v>891</v>
+      </c>
+      <c r="G157" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>523</v>
@@ -22512,13 +24035,13 @@
         <v>486</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C159" s="4">
         <v>2</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L159" s="3"/>
     </row>
@@ -22527,19 +24050,19 @@
         <v>306</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C160" s="4">
         <v>3</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="G160" s="1" t="s">
         <v>327</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I160" s="1" t="s">
         <v>173</v>
@@ -22553,43 +24076,50 @@
         <v>201</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C162" s="4"/>
-      <c r="D162" s="8"/>
+        <v>1175</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C162" s="4">
+        <v>2</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>866</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>867</v>
       </c>
       <c r="C163" s="4">
         <v>2</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E163" s="4">
         <v>1259</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>523</v>
@@ -22598,13 +24128,13 @@
         <v>505</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>58</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.3">
@@ -22612,13 +24142,13 @@
         <v>469</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C164" s="4">
         <v>2</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.3">
@@ -22626,13 +24156,13 @@
         <v>470</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C165" s="4">
         <v>3</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.3">
@@ -22640,33 +24170,33 @@
         <v>204</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C166" s="4">
         <v>2</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="C167" s="4">
         <v>2</v>
       </c>
       <c r="D167" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="G167" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="G167" s="1" t="s">
-        <v>897</v>
-      </c>
       <c r="H167" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I167" s="1" t="s">
         <v>290</v>
@@ -22680,16 +24210,16 @@
         <v>457</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C168" s="4">
         <v>2</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="H168" s="1" t="s">
         <v>518</v>
@@ -22706,13 +24236,13 @@
         <v>493</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C169" s="4">
         <v>2</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.3">
@@ -22720,7 +24250,7 @@
         <v>280</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C170" s="4">
         <v>2</v>
@@ -22734,13 +24264,13 @@
         <v>458</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C171" s="4">
         <v>3</v>
       </c>
       <c r="D171" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.3">
@@ -22748,13 +24278,13 @@
         <v>588</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C172" s="4">
         <v>3</v>
       </c>
       <c r="D172" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.3">
@@ -22762,61 +24292,102 @@
         <v>494</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C173" s="4">
         <v>2</v>
       </c>
       <c r="D173" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C174" s="4"/>
-      <c r="D174" s="8"/>
+        <v>1181</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E174" s="4">
+        <v>1789</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C175" s="4">
         <v>2</v>
       </c>
       <c r="D175" s="8" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>328</v>
       </c>
+      <c r="H175" s="1" t="s">
+        <v>869</v>
+      </c>
       <c r="I175" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C176" s="4"/>
-      <c r="D176" s="8"/>
+        <v>1158</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C176" s="4">
+        <v>4</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E176" s="4">
+        <v>1582</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I176" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>599</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C177" s="4">
         <v>2</v>
       </c>
       <c r="D177" s="8" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.3">
@@ -22835,22 +24406,22 @@
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="C179" s="4">
         <v>2</v>
       </c>
       <c r="D179" s="8" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>1128</v>
-      </c>
       <c r="H179" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I179" s="1" t="s">
         <v>290</v>
@@ -22873,7 +24444,7 @@
         <v>4</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="G180" s="1" t="s">
         <v>779</v>
@@ -22899,13 +24470,13 @@
         <v>482</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
       </c>
       <c r="D181" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.3">
@@ -22913,13 +24484,13 @@
         <v>471</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C182" s="4">
         <v>2</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.3">
@@ -22927,34 +24498,41 @@
         <v>487</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C184" s="4"/>
-      <c r="D184" s="8"/>
+        <v>1159</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C184" s="4">
+        <v>3</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C185" s="4">
         <v>2</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.3">
@@ -22962,13 +24540,13 @@
         <v>392</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C186" s="4">
         <v>3</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.3">
@@ -22976,13 +24554,13 @@
         <v>208</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C187" s="4">
         <v>3</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>329</v>
@@ -22996,41 +24574,55 @@
         <v>495</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C188" s="4">
         <v>3</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C189" s="4"/>
-      <c r="D189" s="8"/>
+        <v>1160</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C189" s="4">
+        <v>3</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C190" s="4"/>
-      <c r="D190" s="8"/>
+        <v>1161</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C190" s="4">
+        <v>3</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>496</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C191" s="4">
         <v>3</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.3">
@@ -23061,13 +24653,13 @@
         <v>472</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C193" s="4">
         <v>4</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.3">
@@ -23121,13 +24713,13 @@
         <v>459</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C196" s="4">
         <v>2</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="L196" s="3"/>
     </row>
@@ -23136,13 +24728,13 @@
         <v>237</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C197" s="4">
         <v>2</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.3">
@@ -23150,19 +24742,19 @@
         <v>330</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C198" s="4">
         <v>2</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="G198" s="1" t="s">
         <v>331</v>
       </c>
       <c r="H198" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I198" s="1" t="s">
         <v>173</v>
@@ -23173,19 +24765,19 @@
         <v>332</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C199" s="4">
         <v>2</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G199" s="1" t="s">
         <v>333</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="I199" s="1" t="s">
         <v>173</v>
@@ -23193,19 +24785,19 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="C200" s="4">
         <v>2</v>
       </c>
       <c r="D200" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="G200" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="G200" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="H200" s="1" t="s">
         <v>518</v>
@@ -23219,13 +24811,13 @@
         <v>215</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="C201" s="4">
         <v>2</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>307</v>
@@ -23242,13 +24834,13 @@
         <v>238</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C202" s="4">
         <v>2</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.3">
@@ -23274,7 +24866,7 @@
         <v>545</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="I203" s="1" t="s">
         <v>435</v>
@@ -23294,13 +24886,13 @@
         <v>217</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C204" s="4">
         <v>2</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.3">
@@ -23308,13 +24900,13 @@
         <v>593</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C205" s="4">
         <v>3</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.3">
@@ -23322,13 +24914,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C206" s="4">
         <v>2</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.3">
@@ -23336,13 +24928,13 @@
         <v>274</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C207" s="4">
         <v>2</v>
       </c>
       <c r="D207" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.3">
@@ -23350,13 +24942,13 @@
         <v>473</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C208" s="4">
         <v>3</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.3">
@@ -23364,13 +24956,13 @@
         <v>658</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="G209" s="1" t="s">
         <v>656</v>
@@ -23393,13 +24985,13 @@
         <v>267</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C210" s="4">
         <v>2</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.3">
@@ -23407,13 +24999,13 @@
         <v>232</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C211" s="4">
         <v>2</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="G211" s="1" t="s">
         <v>309</v>
@@ -23445,7 +25037,7 @@
         <v>439</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>529</v>
@@ -23468,13 +25060,13 @@
         <v>488</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C213" s="4">
         <v>2</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.3">
@@ -23482,13 +25074,13 @@
         <v>346</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C214" s="4">
         <v>2</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G214" s="1" t="s">
         <v>347</v>
@@ -23502,13 +25094,13 @@
         <v>474</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="C215" s="4">
         <v>2</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.3">
@@ -23516,13 +25108,13 @@
         <v>308</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C216" s="4">
         <v>2</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.3">
@@ -23530,30 +25122,30 @@
         <v>475</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C217" s="4">
         <v>2</v>
       </c>
       <c r="D217" s="8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="L217" s="3" t="s">
         <v>1012</v>
-      </c>
-      <c r="L217" s="3" t="s">
-        <v>1013</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="C218" s="4">
         <v>2</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="L218" s="3"/>
     </row>
@@ -23562,7 +25154,7 @@
         <v>741</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>531</v>
@@ -23576,13 +25168,13 @@
         <v>199</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C220" s="4">
         <v>2</v>
       </c>
       <c r="D220" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="G220" s="1" t="s">
         <v>310</v>
@@ -23599,13 +25191,13 @@
         <v>311</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C221" s="4">
         <v>4</v>
       </c>
       <c r="D221" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G221" s="1" t="s">
         <v>312</v>
@@ -23622,13 +25214,13 @@
         <v>489</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C222" s="4">
         <v>2</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.3">
@@ -23636,13 +25228,13 @@
         <v>275</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.3">
@@ -23650,13 +25242,13 @@
         <v>460</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C224" s="4">
         <v>3</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.3">
@@ -23699,13 +25291,13 @@
         <v>196</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C226" s="4">
         <v>2</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.3">
@@ -23713,41 +25305,55 @@
         <v>507</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
       </c>
       <c r="D227" s="8" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C228" s="4"/>
-      <c r="D228" s="8"/>
+        <v>1163</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="D228" s="8" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C229" s="4"/>
-      <c r="D229" s="8"/>
+        <v>1162</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C229" s="4">
+        <v>3</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>1233</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>334</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C230" s="4">
         <v>2</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>335</v>
@@ -23758,19 +25364,19 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>994</v>
       </c>
       <c r="C231" s="4">
         <v>2</v>
       </c>
       <c r="D231" s="8" t="s">
+        <v>994</v>
+      </c>
+      <c r="G231" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="G231" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>544</v>
@@ -23784,13 +25390,13 @@
         <v>282</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C232" s="4">
         <v>2</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.3">
@@ -23798,13 +25404,13 @@
         <v>336</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="C233" s="4">
         <v>2</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>337</v>
@@ -23818,7 +25424,7 @@
         <v>483</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="C234" s="4">
         <v>3</v>
@@ -23829,16 +25435,16 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="C235" s="4">
         <v>3</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.3">
@@ -23846,13 +25452,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C236" s="4">
         <v>2</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.3">
@@ -23860,39 +25466,39 @@
         <v>279</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C237" s="4">
         <v>3</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="L237" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C238" s="4">
         <v>3</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E238" s="4">
         <v>1454</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>712</v>
@@ -23901,7 +25507,7 @@
         <v>290</v>
       </c>
       <c r="J238" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K238" s="1" t="s">
         <v>58</v>
@@ -23915,13 +25521,13 @@
         <v>276</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C239" s="4">
         <v>3</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.3">
@@ -23929,13 +25535,13 @@
         <v>209</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C240" s="4">
         <v>3</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.3">
@@ -23943,13 +25549,13 @@
         <v>490</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C241" s="4">
         <v>2</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.3">
@@ -23957,13 +25563,13 @@
         <v>193</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C242" s="4">
         <v>3</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>313</v>
@@ -23977,13 +25583,13 @@
         <v>216</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C243" s="4">
         <v>2</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>348</v>
@@ -23997,13 +25603,13 @@
         <v>497</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C244" s="4">
         <v>2</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.3">
@@ -24011,13 +25617,13 @@
         <v>594</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="C245" s="4">
         <v>3</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.3">
@@ -24025,13 +25631,13 @@
         <v>595</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C246" s="4">
         <v>3</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.3">
@@ -24045,7 +25651,7 @@
         <v>3</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E247" s="4" t="s">
         <v>24</v>
@@ -24074,13 +25680,13 @@
         <v>206</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C248" s="4">
         <v>2</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>349</v>
@@ -24094,13 +25700,13 @@
         <v>476</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C249" s="4">
         <v>3</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.3">
@@ -24108,13 +25714,13 @@
         <v>283</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C250" s="4">
         <v>3</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.3">
@@ -24122,13 +25728,13 @@
         <v>477</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="C251" s="4">
         <v>2</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.3">
@@ -24136,13 +25742,13 @@
         <v>219</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C252" s="4">
         <v>2</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.3">
@@ -24156,7 +25762,7 @@
         <v>2</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E253" s="4" t="s">
         <v>24</v>
@@ -24191,7 +25797,7 @@
         <v>2</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E254" s="4" t="s">
         <v>24</v>
@@ -24220,29 +25826,36 @@
         <v>480</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C255" s="4">
         <v>2</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="J255" s="4"/>
       <c r="L255" s="3"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C256" s="4"/>
-      <c r="D256" s="8"/>
+        <v>1176</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C256" s="4">
+        <v>3</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>1235</v>
+      </c>
       <c r="J256" s="4"/>
       <c r="L256" s="3"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C257" s="4"/>
       <c r="D257" s="8"/>
@@ -24254,13 +25867,13 @@
         <v>461</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C258" s="4">
         <v>2</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.3">
@@ -24274,12 +25887,12 @@
         <v>2</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="C260" s="4"/>
       <c r="D260" s="8"/>
@@ -24289,31 +25902,31 @@
         <v>192</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="C261" s="4">
         <v>2</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="C262" s="4"/>
       <c r="D262" s="8"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A263" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C263" s="4" t="s">
         <v>1133</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>1134</v>
       </c>
       <c r="D263" s="8" t="s">
         <v>362</v>
@@ -24324,18 +25937,18 @@
         <v>498</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C264" s="4">
         <v>3</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="C265" s="4"/>
       <c r="D265" s="8"/>
@@ -24377,13 +25990,13 @@
         <v>611</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>531</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="J267" s="4"/>
     </row>
@@ -24404,7 +26017,7 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="C269" s="4"/>
       <c r="D269" s="8"/>
@@ -24415,13 +26028,13 @@
         <v>339</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="C270" s="4">
         <v>3</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>338</v>
@@ -24435,13 +26048,13 @@
         <v>278</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C271" s="4">
         <v>2</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.3">
@@ -24449,13 +26062,13 @@
         <v>340</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C272" s="4">
         <v>3</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>341</v>
@@ -24469,13 +26082,13 @@
         <v>350</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C273" s="4">
         <v>2</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>351</v>
@@ -24486,7 +26099,7 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A274" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="C274" s="4"/>
       <c r="D274" s="8"/>
@@ -24496,13 +26109,13 @@
         <v>210</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C275" s="4">
         <v>2</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.3">
@@ -24510,13 +26123,13 @@
         <v>592</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C276" s="4">
         <v>3</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.3">
@@ -24524,13 +26137,13 @@
         <v>478</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="C277" s="4">
         <v>3</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.3">
@@ -24576,13 +26189,13 @@
         <v>270</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C279" s="4">
         <v>2</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L279" s="3"/>
     </row>
@@ -24591,13 +26204,13 @@
         <v>271</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C280" s="4">
         <v>2</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="L280" s="3"/>
     </row>
@@ -24606,13 +26219,13 @@
         <v>269</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C281" s="4">
         <v>3</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="L281" s="3"/>
     </row>
@@ -24621,13 +26234,13 @@
         <v>212</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C282" s="4">
         <v>2</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.3">
@@ -24635,13 +26248,13 @@
         <v>462</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C283" s="4">
         <v>3</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.3">
@@ -24655,7 +26268,7 @@
         <v>2</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E284" s="4">
         <v>1384</v>
@@ -24667,7 +26280,7 @@
         <v>353</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>173</v>
@@ -24687,13 +26300,13 @@
         <v>659</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C285" s="4">
         <v>3</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="E285" s="4">
         <v>1299</v>
@@ -24725,13 +26338,13 @@
         <v>481</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C286" s="4">
         <v>2</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L286" s="3"/>
     </row>
@@ -24775,7 +26388,7 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="3" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="C288" s="4"/>
       <c r="D288" s="8"/>
@@ -24783,7 +26396,7 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="C289" s="4"/>
       <c r="D289" s="8"/>
@@ -24791,7 +26404,7 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C290" s="4"/>
       <c r="D290" s="8"/>
@@ -24799,16 +26412,16 @@
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="3" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C291" s="4">
         <v>2</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="L291" s="3"/>
     </row>
@@ -24823,7 +26436,7 @@
         <v>2</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E292" s="4">
         <v>1773</v>
@@ -24855,17 +26468,17 @@
         <v>463</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="C293" s="4">
         <v>2</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="J293" s="4"/>
       <c r="L293" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.3">
@@ -24873,13 +26486,13 @@
         <v>464</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="C294" s="4">
         <v>3</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="J294" s="4"/>
       <c r="L294" s="3"/>
@@ -24895,7 +26508,7 @@
         <v>3</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E295" s="4">
         <v>1989</v>
@@ -24907,7 +26520,7 @@
         <v>355</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="I295" s="1" t="s">
         <v>173</v>
@@ -24925,17 +26538,17 @@
         <v>479</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C296" s="4">
         <v>2</v>
       </c>
       <c r="D296" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="J296" s="4"/>
       <c r="L296" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.3">
@@ -24943,13 +26556,13 @@
         <v>198</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="C297" s="4">
         <v>2</v>
       </c>
       <c r="D297" s="8" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.3">
@@ -24957,25 +26570,25 @@
         <v>354</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C298" s="4">
         <v>2</v>
       </c>
       <c r="D298" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>347</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="I298" s="1" t="s">
         <v>173</v>
       </c>
       <c r="L298" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.3">
@@ -24983,13 +26596,13 @@
         <v>207</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C299" s="4">
         <v>2</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.3">
@@ -25015,7 +26628,7 @@
         <v>504</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="I300" s="1" t="s">
         <v>505</v>
